--- a/raw_ts_data/fd/fd12_ts1.xlsx
+++ b/raw_ts_data/fd/fd12_ts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7D2FF45-BC33-4406-92C7-FB1A8DAF3DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C5EE90-060E-4D6F-8C0D-61849D65211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A5253AB-7991-5C42-B2D2-1B4C073D839F}"/>
   </bookViews>
@@ -219,9 +219,6 @@
     <t>Shot through grass</t>
   </si>
   <si>
-    <t>TP9</t>
-  </si>
-  <si>
     <t>Leveled</t>
   </si>
   <si>
@@ -237,25 +234,10 @@
     <t>RP0</t>
   </si>
   <si>
-    <t>TP6</t>
-  </si>
-  <si>
     <t>PointID</t>
   </si>
   <si>
-    <t>EP7</t>
-  </si>
-  <si>
     <t>EP10</t>
-  </si>
-  <si>
-    <t>EP3</t>
-  </si>
-  <si>
-    <t>EP8</t>
-  </si>
-  <si>
-    <t>EP1</t>
   </si>
   <si>
     <t>upload EP1 vis putty</t>
@@ -265,6 +247,24 @@
   </si>
   <si>
     <t>EP12</t>
+  </si>
+  <si>
+    <t>EP03</t>
+  </si>
+  <si>
+    <t>EP07</t>
+  </si>
+  <si>
+    <t>EP08</t>
+  </si>
+  <si>
+    <t>TP06</t>
+  </si>
+  <si>
+    <t>TP09</t>
+  </si>
+  <si>
+    <t>EP01</t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
   <dimension ref="A1:AC1191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1:B1048576"/>
+      <pane ySplit="1" topLeftCell="A1184" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B1126" sqref="B1126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -705,7 +705,7 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>2</v>
@@ -1599,7 +1599,7 @@
     <row r="51" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A51" s="6"/>
       <c r="B51" s="6" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C51" s="6"/>
       <c r="D51" s="7">
@@ -1616,7 +1616,7 @@
     <row r="52" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
       <c r="B52" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C52" s="8">
         <v>1</v>
@@ -1635,7 +1635,7 @@
     <row r="53" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A53" s="3"/>
       <c r="B53" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C53" s="8">
         <v>1</v>
@@ -1654,7 +1654,7 @@
     <row r="54" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A54" s="3"/>
       <c r="B54" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C54" s="8">
         <v>1</v>
@@ -1673,7 +1673,7 @@
     <row r="55" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A55" s="3"/>
       <c r="B55" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C55" s="8">
         <v>1</v>
@@ -1692,7 +1692,7 @@
     <row r="56" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A56" s="3"/>
       <c r="B56" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C56" s="8">
         <v>1</v>
@@ -1711,7 +1711,7 @@
     <row r="57" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A57" s="3"/>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C57" s="8">
         <v>1</v>
@@ -1730,7 +1730,7 @@
     <row r="58" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A58" s="3"/>
       <c r="B58" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C58" s="8">
         <v>2</v>
@@ -1749,7 +1749,7 @@
     <row r="59" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A59" s="3"/>
       <c r="B59" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C59" s="8">
         <v>2</v>
@@ -1768,7 +1768,7 @@
     <row r="60" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A60" s="3"/>
       <c r="B60" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C60" s="8">
         <v>2</v>
@@ -1787,7 +1787,7 @@
     <row r="61" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A61" s="3"/>
       <c r="B61" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C61" s="8">
         <v>2</v>
@@ -1806,7 +1806,7 @@
     <row r="62" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A62" s="3"/>
       <c r="B62" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C62" s="8">
         <v>2</v>
@@ -1825,7 +1825,7 @@
     <row r="63" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A63" s="3"/>
       <c r="B63" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C63" s="8">
         <v>2</v>
@@ -1844,7 +1844,7 @@
     <row r="64" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A64" s="3"/>
       <c r="B64" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C64" s="8">
         <v>3</v>
@@ -1863,7 +1863,7 @@
     <row r="65" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A65" s="3"/>
       <c r="B65" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C65" s="8">
         <v>3</v>
@@ -1882,7 +1882,7 @@
     <row r="66" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A66" s="3"/>
       <c r="B66" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C66" s="8">
         <v>3</v>
@@ -1901,7 +1901,7 @@
     <row r="67" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A67" s="3"/>
       <c r="B67" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C67" s="8">
         <v>3</v>
@@ -1920,7 +1920,7 @@
     <row r="68" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A68" s="3"/>
       <c r="B68" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C68" s="8">
         <v>3</v>
@@ -1939,7 +1939,7 @@
     <row r="69" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A69" s="3"/>
       <c r="B69" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C69" s="8">
         <v>3</v>
@@ -1958,7 +1958,7 @@
     <row r="70" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A70" s="3"/>
       <c r="B70" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C70" s="8">
         <v>3</v>
@@ -1977,7 +1977,7 @@
     <row r="71" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A71" s="3"/>
       <c r="B71" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C71" s="8">
         <v>3</v>
@@ -1996,7 +1996,7 @@
     <row r="72" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A72" s="3"/>
       <c r="B72" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C72" s="8">
         <v>3</v>
@@ -2015,7 +2015,7 @@
     <row r="73" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A73" s="3"/>
       <c r="B73" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C73" s="8">
         <v>3</v>
@@ -2034,7 +2034,7 @@
     <row r="74" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A74" s="3"/>
       <c r="B74" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C74" s="8">
         <v>4</v>
@@ -2053,7 +2053,7 @@
     <row r="75" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A75" s="3"/>
       <c r="B75" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C75" s="8">
         <v>4</v>
@@ -2072,7 +2072,7 @@
     <row r="76" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A76" s="3"/>
       <c r="B76" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C76" s="8">
         <v>4</v>
@@ -2091,7 +2091,7 @@
     <row r="77" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A77" s="3"/>
       <c r="B77" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C77" s="8">
         <v>4</v>
@@ -2110,7 +2110,7 @@
     <row r="78" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A78" s="3"/>
       <c r="B78" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C78" s="8">
         <v>4</v>
@@ -2129,7 +2129,7 @@
     <row r="79" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A79" s="3"/>
       <c r="B79" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C79" s="8">
         <v>4</v>
@@ -2148,7 +2148,7 @@
     <row r="80" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A80" s="3"/>
       <c r="B80" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C80" s="8">
         <v>5</v>
@@ -2167,7 +2167,7 @@
     <row r="81" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C81" s="8">
         <v>5</v>
@@ -2186,7 +2186,7 @@
     <row r="82" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C82" s="8">
         <v>5</v>
@@ -2205,7 +2205,7 @@
     <row r="83" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C83" s="8">
         <v>5</v>
@@ -2224,7 +2224,7 @@
     <row r="84" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C84" s="8">
         <v>5</v>
@@ -2243,7 +2243,7 @@
     <row r="85" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C85" s="8">
         <v>5</v>
@@ -2262,7 +2262,7 @@
     <row r="86" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C86" s="8">
         <v>6</v>
@@ -2281,7 +2281,7 @@
     <row r="87" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C87" s="8">
         <v>6</v>
@@ -2300,7 +2300,7 @@
     <row r="88" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C88" s="8">
         <v>6</v>
@@ -2319,7 +2319,7 @@
     <row r="89" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C89" s="8">
         <v>6</v>
@@ -2338,7 +2338,7 @@
     <row r="90" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C90" s="8">
         <v>6</v>
@@ -2357,7 +2357,7 @@
     <row r="91" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C91" s="8">
         <v>6</v>
@@ -2376,7 +2376,7 @@
     <row r="92" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C92" s="8">
         <v>7</v>
@@ -2395,7 +2395,7 @@
     <row r="93" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C93" s="8">
         <v>7</v>
@@ -2414,7 +2414,7 @@
     <row r="94" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C94" s="8">
         <v>7</v>
@@ -2433,7 +2433,7 @@
     <row r="95" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C95" s="8">
         <v>7</v>
@@ -2452,7 +2452,7 @@
     <row r="96" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C96" s="8">
         <v>8</v>
@@ -2473,7 +2473,7 @@
     <row r="97" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C97" s="8">
         <v>8</v>
@@ -2494,7 +2494,7 @@
     <row r="98" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C98" s="8">
         <v>7</v>
@@ -2513,7 +2513,7 @@
     <row r="99" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C99" s="8">
         <v>7</v>
@@ -2532,7 +2532,7 @@
     <row r="100" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C100" s="8">
         <v>8</v>
@@ -2551,7 +2551,7 @@
     <row r="101" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C101" s="8">
         <v>8</v>
@@ -2570,7 +2570,7 @@
     <row r="102" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C102" s="8">
         <v>8</v>
@@ -2589,7 +2589,7 @@
     <row r="103" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C103" s="8">
         <v>8</v>
@@ -2608,7 +2608,7 @@
     <row r="104" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C104" s="10">
         <v>8</v>
@@ -2629,7 +2629,7 @@
     <row r="105" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="9" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C105" s="10">
         <v>8</v>
@@ -2650,7 +2650,7 @@
     <row r="106" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C106" s="8">
         <v>8</v>
@@ -2669,7 +2669,7 @@
     <row r="107" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C107" s="8">
         <v>8</v>
@@ -2688,7 +2688,7 @@
     <row r="108" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C108" s="8">
         <v>8</v>
@@ -2707,7 +2707,7 @@
     <row r="109" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C109" s="8">
         <v>8</v>
@@ -2726,7 +2726,7 @@
     <row r="110" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C110" s="8">
         <v>9</v>
@@ -2745,7 +2745,7 @@
     <row r="111" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C111" s="8">
         <v>9</v>
@@ -2764,7 +2764,7 @@
     <row r="112" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C112" s="8">
         <v>9</v>
@@ -2783,7 +2783,7 @@
     <row r="113" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A113" s="3"/>
       <c r="B113" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C113" s="8">
         <v>9</v>
@@ -2802,7 +2802,7 @@
     <row r="114" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A114" s="3"/>
       <c r="B114" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C114" s="8">
         <v>9</v>
@@ -2821,7 +2821,7 @@
     <row r="115" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A115" s="3"/>
       <c r="B115" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C115" s="8">
         <v>9</v>
@@ -2840,7 +2840,7 @@
     <row r="116" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A116" s="3"/>
       <c r="B116" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C116" s="8">
         <v>10</v>
@@ -2859,7 +2859,7 @@
     <row r="117" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A117" s="3"/>
       <c r="B117" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C117" s="8">
         <v>10</v>
@@ -2878,7 +2878,7 @@
     <row r="118" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A118" s="3"/>
       <c r="B118" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C118" s="8">
         <v>10</v>
@@ -2897,7 +2897,7 @@
     <row r="119" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A119" s="3"/>
       <c r="B119" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C119" s="8">
         <v>10</v>
@@ -2916,7 +2916,7 @@
     <row r="120" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A120" s="3"/>
       <c r="B120" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C120" s="8">
         <v>10</v>
@@ -2935,7 +2935,7 @@
     <row r="121" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A121" s="3"/>
       <c r="B121" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C121" s="8">
         <v>10</v>
@@ -2954,7 +2954,7 @@
     <row r="122" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A122" s="3"/>
       <c r="B122" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C122" s="8">
         <v>6</v>
@@ -2973,7 +2973,7 @@
     <row r="123" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A123" s="3"/>
       <c r="B123" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C123" s="8">
         <v>6</v>
@@ -2992,7 +2992,7 @@
     <row r="124" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A124" s="3"/>
       <c r="B124" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C124" s="8">
         <v>6</v>
@@ -3011,7 +3011,7 @@
     <row r="125" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A125" s="3"/>
       <c r="B125" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C125" s="8">
         <v>6</v>
@@ -3030,7 +3030,7 @@
     <row r="126" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A126" s="3"/>
       <c r="B126" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C126" s="8">
         <v>6</v>
@@ -3049,7 +3049,7 @@
     <row r="127" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A127" s="3"/>
       <c r="B127" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C127" s="8">
         <v>6</v>
@@ -3068,7 +3068,7 @@
     <row r="128" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A128" s="3"/>
       <c r="B128" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C128" s="8">
         <v>6</v>
@@ -3087,7 +3087,7 @@
     <row r="129" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A129" s="3"/>
       <c r="B129" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C129" s="8">
         <v>6</v>
@@ -3106,7 +3106,7 @@
     <row r="130" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A130" s="3"/>
       <c r="B130" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C130" s="8">
         <v>7</v>
@@ -3125,7 +3125,7 @@
     <row r="131" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A131" s="3"/>
       <c r="B131" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C131" s="8">
         <v>7</v>
@@ -3144,7 +3144,7 @@
     <row r="132" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A132" s="3"/>
       <c r="B132" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C132" s="8">
         <v>7</v>
@@ -3163,7 +3163,7 @@
     <row r="133" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A133" s="3"/>
       <c r="B133" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C133" s="8">
         <v>7</v>
@@ -3182,7 +3182,7 @@
     <row r="134" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A134" s="3"/>
       <c r="B134" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C134" s="8">
         <v>7</v>
@@ -3201,7 +3201,7 @@
     <row r="135" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A135" s="3"/>
       <c r="B135" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C135" s="8">
         <v>7</v>
@@ -3220,7 +3220,7 @@
     <row r="136" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A136" s="3"/>
       <c r="B136" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C136" s="8">
         <v>7</v>
@@ -3239,7 +3239,7 @@
     <row r="137" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A137" s="3"/>
       <c r="B137" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C137" s="8">
         <v>7</v>
@@ -3258,7 +3258,7 @@
     <row r="138" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A138" s="3"/>
       <c r="B138" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C138" s="8">
         <v>8</v>
@@ -3277,7 +3277,7 @@
     <row r="139" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A139" s="3"/>
       <c r="B139" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C139" s="8">
         <v>8</v>
@@ -3296,7 +3296,7 @@
     <row r="140" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A140" s="3"/>
       <c r="B140" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C140" s="8">
         <v>8</v>
@@ -3315,7 +3315,7 @@
     <row r="141" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A141" s="3"/>
       <c r="B141" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C141" s="8">
         <v>8</v>
@@ -3334,7 +3334,7 @@
     <row r="142" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A142" s="3"/>
       <c r="B142" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C142" s="8">
         <v>8</v>
@@ -3353,7 +3353,7 @@
     <row r="143" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A143" s="3"/>
       <c r="B143" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C143" s="8">
         <v>8</v>
@@ -3372,7 +3372,7 @@
     <row r="144" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A144" s="3"/>
       <c r="B144" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C144" s="8">
         <v>8</v>
@@ -3391,7 +3391,7 @@
     <row r="145" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A145" s="3"/>
       <c r="B145" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C145" s="8">
         <v>8</v>
@@ -3410,7 +3410,7 @@
     <row r="146" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A146" s="3"/>
       <c r="B146" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C146" s="8">
         <v>9</v>
@@ -3429,7 +3429,7 @@
     <row r="147" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A147" s="3"/>
       <c r="B147" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C147" s="8">
         <v>9</v>
@@ -3448,7 +3448,7 @@
     <row r="148" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A148" s="3"/>
       <c r="B148" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C148" s="8">
         <v>9</v>
@@ -3467,7 +3467,7 @@
     <row r="149" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A149" s="3"/>
       <c r="B149" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C149" s="8">
         <v>9</v>
@@ -3486,7 +3486,7 @@
     <row r="150" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A150" s="3"/>
       <c r="B150" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C150" s="8">
         <v>9</v>
@@ -3505,7 +3505,7 @@
     <row r="151" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A151" s="3"/>
       <c r="B151" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C151" s="8">
         <v>9</v>
@@ -3524,7 +3524,7 @@
     <row r="152" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A152" s="3"/>
       <c r="B152" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C152" s="8">
         <v>9</v>
@@ -3543,7 +3543,7 @@
     <row r="153" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A153" s="3"/>
       <c r="B153" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C153" s="8">
         <v>9</v>
@@ -3562,7 +3562,7 @@
     <row r="154" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A154" s="3"/>
       <c r="B154" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C154" s="8">
         <v>10</v>
@@ -3581,7 +3581,7 @@
     <row r="155" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A155" s="3"/>
       <c r="B155" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C155" s="8">
         <v>10</v>
@@ -3600,7 +3600,7 @@
     <row r="156" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A156" s="3"/>
       <c r="B156" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C156" s="8">
         <v>10</v>
@@ -3619,7 +3619,7 @@
     <row r="157" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A157" s="3"/>
       <c r="B157" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C157" s="8">
         <v>10</v>
@@ -3638,7 +3638,7 @@
     <row r="158" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A158" s="3"/>
       <c r="B158" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C158" s="8">
         <v>10</v>
@@ -3657,7 +3657,7 @@
     <row r="159" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A159" s="3"/>
       <c r="B159" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C159" s="8">
         <v>10</v>
@@ -3676,7 +3676,7 @@
     <row r="160" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A160" s="3"/>
       <c r="B160" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C160" s="8">
         <v>10</v>
@@ -3695,7 +3695,7 @@
     <row r="161" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A161" s="3"/>
       <c r="B161" s="3" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C161" s="8">
         <v>10</v>
@@ -3714,7 +3714,7 @@
     <row r="162" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A162" s="5"/>
       <c r="B162" s="5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C162" s="5"/>
       <c r="D162" s="11">
@@ -3751,7 +3751,7 @@
     <row r="163" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A163" s="3"/>
       <c r="B163" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D163" s="3">
         <v>101</v>
@@ -3767,7 +3767,7 @@
     <row r="164" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
       <c r="B164" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C164" s="2">
         <v>1</v>
@@ -3786,7 +3786,7 @@
     <row r="165" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
       <c r="B165" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C165" s="2">
         <v>1</v>
@@ -3805,7 +3805,7 @@
     <row r="166" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
       <c r="B166" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C166" s="2">
         <v>1</v>
@@ -3824,7 +3824,7 @@
     <row r="167" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
       <c r="B167" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C167" s="2">
         <v>1</v>
@@ -3842,7 +3842,7 @@
     </row>
     <row r="168" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C168" s="2">
         <v>1</v>
@@ -3859,7 +3859,7 @@
     </row>
     <row r="169" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C169" s="2">
         <v>1</v>
@@ -3876,7 +3876,7 @@
     </row>
     <row r="170" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C170" s="2">
         <v>2</v>
@@ -3893,7 +3893,7 @@
     </row>
     <row r="171" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C171" s="2">
         <v>2</v>
@@ -3910,7 +3910,7 @@
     </row>
     <row r="172" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C172" s="2">
         <v>2</v>
@@ -3927,7 +3927,7 @@
     </row>
     <row r="173" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C173" s="2">
         <v>2</v>
@@ -3944,7 +3944,7 @@
     </row>
     <row r="174" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C174" s="2">
         <v>2</v>
@@ -3961,7 +3961,7 @@
     </row>
     <row r="175" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C175" s="2">
         <v>2</v>
@@ -3978,7 +3978,7 @@
     </row>
     <row r="176" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C176" s="2">
         <v>3</v>
@@ -3995,7 +3995,7 @@
     </row>
     <row r="177" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C177" s="2">
         <v>3</v>
@@ -4012,7 +4012,7 @@
     </row>
     <row r="178" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C178" s="2">
         <v>3</v>
@@ -4029,7 +4029,7 @@
     </row>
     <row r="179" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C179" s="2">
         <v>3</v>
@@ -4046,7 +4046,7 @@
     </row>
     <row r="180" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C180" s="2">
         <v>3</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="181" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C181" s="2">
         <v>3</v>
@@ -4080,7 +4080,7 @@
     </row>
     <row r="182" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C182" s="2">
         <v>3</v>
@@ -4097,7 +4097,7 @@
     </row>
     <row r="183" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C183" s="2">
         <v>3</v>
@@ -4114,7 +4114,7 @@
     </row>
     <row r="184" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C184" s="2">
         <v>3</v>
@@ -4134,7 +4134,7 @@
     </row>
     <row r="185" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C185" s="2">
         <v>3</v>
@@ -4154,7 +4154,7 @@
     </row>
     <row r="186" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C186" s="2">
         <v>3</v>
@@ -4171,7 +4171,7 @@
     </row>
     <row r="187" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C187" s="2">
         <v>3</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="188" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C188" s="2">
         <v>4</v>
@@ -4208,7 +4208,7 @@
     </row>
     <row r="189" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C189" s="2">
         <v>4</v>
@@ -4225,7 +4225,7 @@
     </row>
     <row r="190" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C190" s="2">
         <v>4</v>
@@ -4242,7 +4242,7 @@
     </row>
     <row r="191" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C191" s="2">
         <v>4</v>
@@ -4259,7 +4259,7 @@
     </row>
     <row r="192" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C192" s="2">
         <v>4</v>
@@ -4276,7 +4276,7 @@
     </row>
     <row r="193" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C193" s="2">
         <v>4</v>
@@ -4293,7 +4293,7 @@
     </row>
     <row r="194" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C194" s="2">
         <v>5</v>
@@ -4310,7 +4310,7 @@
     </row>
     <row r="195" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C195" s="2">
         <v>5</v>
@@ -4327,7 +4327,7 @@
     </row>
     <row r="196" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C196" s="2">
         <v>5</v>
@@ -4344,7 +4344,7 @@
     </row>
     <row r="197" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C197" s="2">
         <v>5</v>
@@ -4361,7 +4361,7 @@
     </row>
     <row r="198" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C198" s="2">
         <v>5</v>
@@ -4378,7 +4378,7 @@
     </row>
     <row r="199" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C199" s="2">
         <v>5</v>
@@ -4395,7 +4395,7 @@
     </row>
     <row r="200" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C200" s="2">
         <v>6</v>
@@ -4412,7 +4412,7 @@
     </row>
     <row r="201" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C201" s="2">
         <v>6</v>
@@ -4429,7 +4429,7 @@
     </row>
     <row r="202" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C202" s="2">
         <v>6</v>
@@ -4446,7 +4446,7 @@
     </row>
     <row r="203" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C203" s="2">
         <v>6</v>
@@ -4463,7 +4463,7 @@
     </row>
     <row r="204" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C204" s="2">
         <v>6</v>
@@ -4480,7 +4480,7 @@
     </row>
     <row r="205" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C205" s="2">
         <v>6</v>
@@ -4497,7 +4497,7 @@
     </row>
     <row r="206" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C206" s="2">
         <v>7</v>
@@ -4514,7 +4514,7 @@
     </row>
     <row r="207" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C207" s="2">
         <v>7</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="208" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C208" s="2">
         <v>7</v>
@@ -4548,7 +4548,7 @@
     </row>
     <row r="209" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C209" s="2">
         <v>7</v>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="210" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C210" s="2">
         <v>7</v>
@@ -4582,7 +4582,7 @@
     </row>
     <row r="211" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C211" s="2">
         <v>7</v>
@@ -4599,7 +4599,7 @@
     </row>
     <row r="212" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C212" s="2">
         <v>8</v>
@@ -4616,7 +4616,7 @@
     </row>
     <row r="213" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C213" s="2">
         <v>8</v>
@@ -4633,7 +4633,7 @@
     </row>
     <row r="214" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C214" s="2">
         <v>8</v>
@@ -4650,7 +4650,7 @@
     </row>
     <row r="215" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C215" s="2">
         <v>8</v>
@@ -4667,7 +4667,7 @@
     </row>
     <row r="216" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C216" s="2">
         <v>8</v>
@@ -4684,7 +4684,7 @@
     </row>
     <row r="217" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C217" s="2">
         <v>8</v>
@@ -4701,7 +4701,7 @@
     </row>
     <row r="218" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C218" s="2">
         <v>8</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="219" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C219" s="2">
         <v>8</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="220" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C220" s="2">
         <v>8</v>
@@ -4752,7 +4752,7 @@
     </row>
     <row r="221" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C221" s="2">
         <v>8</v>
@@ -4769,7 +4769,7 @@
     </row>
     <row r="222" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C222" s="2">
         <v>9</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="223" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C223" s="2">
         <v>9</v>
@@ -4803,7 +4803,7 @@
     </row>
     <row r="224" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C224" s="2">
         <v>9</v>
@@ -4820,7 +4820,7 @@
     </row>
     <row r="225" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C225" s="2">
         <v>9</v>
@@ -4837,7 +4837,7 @@
     </row>
     <row r="226" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C226" s="2">
         <v>9</v>
@@ -4854,7 +4854,7 @@
     </row>
     <row r="227" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C227" s="2">
         <v>9</v>
@@ -4871,7 +4871,7 @@
     </row>
     <row r="228" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C228" s="2">
         <v>10</v>
@@ -4888,7 +4888,7 @@
     </row>
     <row r="229" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C229" s="2">
         <v>10</v>
@@ -4905,7 +4905,7 @@
     </row>
     <row r="230" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C230" s="2">
         <v>10</v>
@@ -4922,7 +4922,7 @@
     </row>
     <row r="231" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C231" s="2">
         <v>10</v>
@@ -4939,7 +4939,7 @@
     </row>
     <row r="232" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C232" s="2">
         <v>10</v>
@@ -4956,7 +4956,7 @@
     </row>
     <row r="233" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C233" s="2">
         <v>10</v>
@@ -4973,7 +4973,7 @@
     </row>
     <row r="234" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C234" s="2">
         <v>6</v>
@@ -4993,7 +4993,7 @@
     </row>
     <row r="235" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C235" s="2">
         <v>6</v>
@@ -5013,7 +5013,7 @@
     </row>
     <row r="236" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C236" s="2">
         <v>7</v>
@@ -5033,7 +5033,7 @@
     </row>
     <row r="237" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C237" s="2">
         <v>7</v>
@@ -5053,7 +5053,7 @@
     </row>
     <row r="238" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C238" s="2">
         <v>8</v>
@@ -5073,7 +5073,7 @@
     </row>
     <row r="239" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C239" s="2">
         <v>8</v>
@@ -5093,7 +5093,7 @@
     </row>
     <row r="240" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C240" s="2">
         <v>9</v>
@@ -5113,7 +5113,7 @@
     </row>
     <row r="241" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B241" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C241" s="2">
         <v>9</v>
@@ -5133,7 +5133,7 @@
     </row>
     <row r="242" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C242" s="2">
         <v>10</v>
@@ -5153,7 +5153,7 @@
     </row>
     <row r="243" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C243" s="2">
         <v>10</v>
@@ -5174,7 +5174,7 @@
     <row r="244" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A244" s="4"/>
       <c r="B244" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C244" s="4"/>
       <c r="D244" s="4">
@@ -8398,7 +8398,7 @@
     </row>
     <row r="429" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B429" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="448" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
@@ -9738,7 +9738,7 @@
     <row r="524" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A524" s="12"/>
       <c r="B524" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C524" s="12"/>
       <c r="D524" s="12">
@@ -9755,7 +9755,7 @@
     </row>
     <row r="525" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B525" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C525" s="2">
         <v>7</v>
@@ -9769,7 +9769,7 @@
     </row>
     <row r="526" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B526" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C526" s="2">
         <v>7</v>
@@ -9783,7 +9783,7 @@
     </row>
     <row r="527" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B527" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C527" s="2">
         <v>8</v>
@@ -9797,7 +9797,7 @@
     </row>
     <row r="528" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B528" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C528" s="2">
         <v>8</v>
@@ -9811,7 +9811,7 @@
     </row>
     <row r="529" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B529" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C529" s="2">
         <v>8</v>
@@ -9825,7 +9825,7 @@
     </row>
     <row r="530" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B530" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C530" s="2">
         <v>8</v>
@@ -9839,7 +9839,7 @@
     </row>
     <row r="531" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B531" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C531" s="2">
         <v>8</v>
@@ -9853,7 +9853,7 @@
     </row>
     <row r="532" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B532" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C532" s="2">
         <v>8</v>
@@ -9867,7 +9867,7 @@
     </row>
     <row r="533" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B533" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C533" s="2">
         <v>9</v>
@@ -9881,7 +9881,7 @@
     </row>
     <row r="534" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B534" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C534" s="2">
         <v>9</v>
@@ -9895,7 +9895,7 @@
     </row>
     <row r="535" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B535" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C535" s="2">
         <v>6</v>
@@ -9909,7 +9909,7 @@
     </row>
     <row r="536" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B536" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C536" s="2">
         <v>6</v>
@@ -9923,7 +9923,7 @@
     </row>
     <row r="537" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B537" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C537" s="2">
         <v>6</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="538" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B538" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C538" s="2">
         <v>6</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="539" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B539" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C539" s="2">
         <v>6</v>
@@ -9965,7 +9965,7 @@
     </row>
     <row r="540" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B540" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C540" s="2">
         <v>6</v>
@@ -9979,7 +9979,7 @@
     </row>
     <row r="541" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B541" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C541" s="2">
         <v>7</v>
@@ -9993,7 +9993,7 @@
     </row>
     <row r="542" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B542" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C542" s="2">
         <v>7</v>
@@ -10007,7 +10007,7 @@
     </row>
     <row r="543" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B543" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C543" s="2">
         <v>8</v>
@@ -10021,7 +10021,7 @@
     </row>
     <row r="544" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B544" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C544" s="2">
         <v>8</v>
@@ -10035,7 +10035,7 @@
     </row>
     <row r="545" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B545" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C545" s="2">
         <v>9</v>
@@ -10049,7 +10049,7 @@
     </row>
     <row r="546" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B546" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C546" s="2">
         <v>9</v>
@@ -10063,7 +10063,7 @@
     </row>
     <row r="547" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B547" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C547" s="2">
         <v>10</v>
@@ -10077,7 +10077,7 @@
     </row>
     <row r="548" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B548" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C548" s="2">
         <v>10</v>
@@ -10091,7 +10091,7 @@
     </row>
     <row r="549" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B549" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C549" s="2">
         <v>10</v>
@@ -10105,7 +10105,7 @@
     </row>
     <row r="550" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B550" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C550" s="2">
         <v>10</v>
@@ -10119,7 +10119,7 @@
     </row>
     <row r="551" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B551" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C551" s="2">
         <v>10</v>
@@ -10133,7 +10133,7 @@
     </row>
     <row r="552" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B552" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C552" s="2">
         <v>10</v>
@@ -10147,7 +10147,7 @@
     </row>
     <row r="553" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B553" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C553" s="2">
         <v>9</v>
@@ -10161,7 +10161,7 @@
     </row>
     <row r="554" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B554" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C554" s="2">
         <v>9</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="555" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B555" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C555" s="2">
         <v>8</v>
@@ -10189,7 +10189,7 @@
     </row>
     <row r="556" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B556" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C556" s="2">
         <v>8</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="557" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B557" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C557" s="2">
         <v>7</v>
@@ -10217,7 +10217,7 @@
     </row>
     <row r="558" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B558" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C558" s="2">
         <v>7</v>
@@ -10231,7 +10231,7 @@
     </row>
     <row r="559" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B559" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C559" s="2">
         <v>1</v>
@@ -10245,7 +10245,7 @@
     </row>
     <row r="560" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B560" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C560" s="2">
         <v>1</v>
@@ -10259,7 +10259,7 @@
     </row>
     <row r="561" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B561" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C561" s="2">
         <v>1</v>
@@ -10273,7 +10273,7 @@
     </row>
     <row r="562" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B562" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C562" s="2">
         <v>1</v>
@@ -10287,7 +10287,7 @@
     </row>
     <row r="563" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B563" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C563" s="2">
         <v>1</v>
@@ -10301,7 +10301,7 @@
     </row>
     <row r="564" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B564" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C564" s="2">
         <v>1</v>
@@ -10315,7 +10315,7 @@
     </row>
     <row r="565" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B565" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C565" s="2">
         <v>2</v>
@@ -10329,7 +10329,7 @@
     </row>
     <row r="566" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B566" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C566" s="2">
         <v>2</v>
@@ -10343,7 +10343,7 @@
     </row>
     <row r="567" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B567" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C567" s="2">
         <v>2</v>
@@ -10357,7 +10357,7 @@
     </row>
     <row r="568" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B568" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C568" s="2">
         <v>2</v>
@@ -10371,7 +10371,7 @@
     </row>
     <row r="569" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B569" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C569" s="2">
         <v>2</v>
@@ -10385,7 +10385,7 @@
     </row>
     <row r="570" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B570" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C570" s="2">
         <v>2</v>
@@ -10399,7 +10399,7 @@
     </row>
     <row r="571" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B571" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C571" s="2">
         <v>3</v>
@@ -10413,7 +10413,7 @@
     </row>
     <row r="572" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B572" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C572" s="2">
         <v>3</v>
@@ -10427,7 +10427,7 @@
     </row>
     <row r="573" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B573" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C573" s="2">
         <v>4</v>
@@ -10441,7 +10441,7 @@
     </row>
     <row r="574" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B574" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C574" s="2">
         <v>4</v>
@@ -10455,7 +10455,7 @@
     </row>
     <row r="575" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B575" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C575" s="2">
         <v>4</v>
@@ -10469,7 +10469,7 @@
     </row>
     <row r="576" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B576" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C576" s="2">
         <v>4</v>
@@ -10483,7 +10483,7 @@
     </row>
     <row r="577" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B577" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C577" s="2">
         <v>3</v>
@@ -10497,7 +10497,7 @@
     </row>
     <row r="578" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B578" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C578" s="2">
         <v>3</v>
@@ -10511,7 +10511,7 @@
     </row>
     <row r="579" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B579" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C579" s="2">
         <v>4</v>
@@ -10525,7 +10525,7 @@
     </row>
     <row r="580" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B580" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C580" s="2">
         <v>4</v>
@@ -10539,7 +10539,7 @@
     </row>
     <row r="581" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B581" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C581" s="2">
         <v>5</v>
@@ -10553,7 +10553,7 @@
     </row>
     <row r="582" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B582" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C582" s="2">
         <v>5</v>
@@ -10567,7 +10567,7 @@
     </row>
     <row r="583" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B583" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C583" s="2">
         <v>5</v>
@@ -10581,7 +10581,7 @@
     </row>
     <row r="584" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B584" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C584" s="2">
         <v>5</v>
@@ -10595,7 +10595,7 @@
     </row>
     <row r="585" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B585" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C585" s="2">
         <v>5</v>
@@ -10609,7 +10609,7 @@
     </row>
     <row r="586" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B586" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C586" s="2">
         <v>5</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="587" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B587" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C587" s="2">
         <v>3</v>
@@ -10637,7 +10637,7 @@
     </row>
     <row r="588" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B588" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C588" s="2">
         <v>3</v>
@@ -10654,7 +10654,7 @@
     </row>
     <row r="589" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B589" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C589" s="2">
         <v>3</v>
@@ -10668,7 +10668,7 @@
     </row>
     <row r="590" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B590" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C590" s="2">
         <v>3</v>
@@ -10682,7 +10682,7 @@
     </row>
     <row r="591" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B591" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C591" s="2">
         <v>3</v>
@@ -10696,7 +10696,7 @@
     </row>
     <row r="592" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B592" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C592" s="2">
         <v>3</v>
@@ -10710,7 +10710,7 @@
     </row>
     <row r="593" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B593" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D593" s="2">
         <v>170</v>
@@ -10721,12 +10721,12 @@
     </row>
     <row r="595" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B595" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="597" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B597" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D597" s="2">
         <v>101</v>
@@ -10737,7 +10737,7 @@
     </row>
     <row r="598" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B598" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C598" s="2">
         <v>1</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="599" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B599" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C599" s="2">
         <v>1</v>
@@ -10765,7 +10765,7 @@
     </row>
     <row r="600" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B600" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C600" s="2">
         <v>1</v>
@@ -10779,7 +10779,7 @@
     </row>
     <row r="601" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B601" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C601" s="2">
         <v>1</v>
@@ -10793,7 +10793,7 @@
     </row>
     <row r="602" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B602" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C602" s="2">
         <v>1</v>
@@ -10807,7 +10807,7 @@
     </row>
     <row r="603" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B603" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C603" s="2">
         <v>1</v>
@@ -10821,7 +10821,7 @@
     </row>
     <row r="604" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B604" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C604" s="2">
         <v>2</v>
@@ -10835,7 +10835,7 @@
     </row>
     <row r="605" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B605" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C605" s="2">
         <v>2</v>
@@ -10849,7 +10849,7 @@
     </row>
     <row r="606" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B606" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C606" s="2">
         <v>2</v>
@@ -10863,7 +10863,7 @@
     </row>
     <row r="607" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B607" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C607" s="2">
         <v>2</v>
@@ -10877,7 +10877,7 @@
     </row>
     <row r="608" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B608" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C608" s="2">
         <v>2</v>
@@ -10891,7 +10891,7 @@
     </row>
     <row r="609" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B609" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C609" s="2">
         <v>2</v>
@@ -10905,7 +10905,7 @@
     </row>
     <row r="610" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B610" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C610" s="2">
         <v>3</v>
@@ -10919,7 +10919,7 @@
     </row>
     <row r="611" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B611" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C611" s="2">
         <v>3</v>
@@ -10933,7 +10933,7 @@
     </row>
     <row r="612" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B612" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C612" s="2">
         <v>3</v>
@@ -10947,7 +10947,7 @@
     </row>
     <row r="613" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B613" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C613" s="2">
         <v>3</v>
@@ -10961,7 +10961,7 @@
     </row>
     <row r="614" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B614" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C614" s="2">
         <v>3</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="615" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B615" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C615" s="2">
         <v>3</v>
@@ -10989,7 +10989,7 @@
     </row>
     <row r="616" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B616" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C616" s="2">
         <v>1</v>
@@ -11003,7 +11003,7 @@
     </row>
     <row r="617" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B617" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C617" s="2">
         <v>1</v>
@@ -11017,7 +11017,7 @@
     </row>
     <row r="618" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B618" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C618" s="2">
         <v>1</v>
@@ -11031,7 +11031,7 @@
     </row>
     <row r="619" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B619" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C619" s="2">
         <v>1</v>
@@ -11045,7 +11045,7 @@
     </row>
     <row r="620" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B620" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C620" s="2">
         <v>1</v>
@@ -11059,7 +11059,7 @@
     </row>
     <row r="621" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B621" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C621" s="2">
         <v>1</v>
@@ -11073,7 +11073,7 @@
     </row>
     <row r="622" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B622" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C622" s="2">
         <v>1</v>
@@ -11087,7 +11087,7 @@
     </row>
     <row r="623" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B623" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C623" s="2">
         <v>1</v>
@@ -11101,7 +11101,7 @@
     </row>
     <row r="624" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B624" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C624" s="2">
         <v>2</v>
@@ -11115,7 +11115,7 @@
     </row>
     <row r="625" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B625" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C625" s="2">
         <v>2</v>
@@ -11129,7 +11129,7 @@
     </row>
     <row r="626" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B626" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C626" s="2">
         <v>2</v>
@@ -11143,7 +11143,7 @@
     </row>
     <row r="627" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B627" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C627" s="2">
         <v>2</v>
@@ -11157,7 +11157,7 @@
     </row>
     <row r="628" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B628" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C628" s="2">
         <v>2</v>
@@ -11171,7 +11171,7 @@
     </row>
     <row r="629" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B629" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C629" s="2">
         <v>2</v>
@@ -11185,7 +11185,7 @@
     </row>
     <row r="630" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B630" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C630" s="2">
         <v>2</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="631" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B631" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C631" s="2">
         <v>2</v>
@@ -11213,7 +11213,7 @@
     </row>
     <row r="632" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B632" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C632" s="2">
         <v>3</v>
@@ -11227,7 +11227,7 @@
     </row>
     <row r="633" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B633" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C633" s="2">
         <v>3</v>
@@ -11241,7 +11241,7 @@
     </row>
     <row r="634" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B634" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C634" s="2">
         <v>3</v>
@@ -11255,7 +11255,7 @@
     </row>
     <row r="635" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B635" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C635" s="2">
         <v>3</v>
@@ -11269,7 +11269,7 @@
     </row>
     <row r="636" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B636" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C636" s="2">
         <v>3</v>
@@ -11283,7 +11283,7 @@
     </row>
     <row r="637" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B637" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C637" s="2">
         <v>3</v>
@@ -11297,7 +11297,7 @@
     </row>
     <row r="638" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B638" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C638" s="2">
         <v>3</v>
@@ -11311,7 +11311,7 @@
     </row>
     <row r="639" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B639" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C639" s="2">
         <v>3</v>
@@ -11325,7 +11325,7 @@
     </row>
     <row r="640" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B640" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C640" s="2">
         <v>1</v>
@@ -11339,7 +11339,7 @@
     </row>
     <row r="641" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B641" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C641" s="2">
         <v>1</v>
@@ -11353,7 +11353,7 @@
     </row>
     <row r="642" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B642" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C642" s="2">
         <v>1</v>
@@ -11367,7 +11367,7 @@
     </row>
     <row r="643" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B643" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C643" s="2">
         <v>1</v>
@@ -11381,7 +11381,7 @@
     </row>
     <row r="644" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B644" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="D644" s="2">
         <v>148</v>
@@ -11392,7 +11392,7 @@
     </row>
     <row r="645" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B645" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C645" s="2">
         <v>1</v>
@@ -11406,7 +11406,7 @@
     </row>
     <row r="646" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B646" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C646" s="2">
         <v>1</v>
@@ -11420,7 +11420,7 @@
     </row>
     <row r="647" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B647" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C647" s="2">
         <v>1</v>
@@ -11434,7 +11434,7 @@
     </row>
     <row r="648" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B648" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C648" s="2">
         <v>1</v>
@@ -11448,7 +11448,7 @@
     </row>
     <row r="649" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B649" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C649" s="2">
         <v>2</v>
@@ -11462,7 +11462,7 @@
     </row>
     <row r="650" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B650" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C650" s="2">
         <v>2</v>
@@ -11476,7 +11476,7 @@
     </row>
     <row r="651" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B651" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C651" s="2">
         <v>2</v>
@@ -11490,7 +11490,7 @@
     </row>
     <row r="652" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B652" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C652" s="2">
         <v>2</v>
@@ -11504,7 +11504,7 @@
     </row>
     <row r="653" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B653" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C653" s="2">
         <v>2</v>
@@ -11518,7 +11518,7 @@
     </row>
     <row r="654" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B654" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C654" s="2">
         <v>2</v>
@@ -11532,7 +11532,7 @@
     </row>
     <row r="655" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B655" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C655" s="2">
         <v>2</v>
@@ -11546,7 +11546,7 @@
     </row>
     <row r="656" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B656" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C656" s="2">
         <v>2</v>
@@ -11560,7 +11560,7 @@
     </row>
     <row r="657" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B657" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C657" s="2">
         <v>3</v>
@@ -11574,7 +11574,7 @@
     </row>
     <row r="658" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B658" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C658" s="2">
         <v>3</v>
@@ -11588,7 +11588,7 @@
     </row>
     <row r="659" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B659" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C659" s="2">
         <v>3</v>
@@ -11602,7 +11602,7 @@
     </row>
     <row r="660" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B660" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C660" s="2">
         <v>3</v>
@@ -11616,7 +11616,7 @@
     </row>
     <row r="661" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B661" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C661" s="2">
         <v>3</v>
@@ -11630,7 +11630,7 @@
     </row>
     <row r="662" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B662" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C662" s="2">
         <v>3</v>
@@ -11644,7 +11644,7 @@
     </row>
     <row r="663" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B663" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C663" s="2">
         <v>3</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="664" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B664" s="2" t="s">
-        <v>60</v>
+        <v>74</v>
       </c>
       <c r="C664" s="2">
         <v>3</v>
@@ -11672,7 +11672,7 @@
     </row>
     <row r="665" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B665" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D665" s="2">
         <v>101</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="666" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B666" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C666" s="2">
         <v>1</v>
@@ -11697,7 +11697,7 @@
     </row>
     <row r="667" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B667" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C667" s="2">
         <v>1</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="668" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B668" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C668" s="2">
         <v>2</v>
@@ -11725,7 +11725,7 @@
     </row>
     <row r="669" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B669" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C669" s="2">
         <v>2</v>
@@ -11739,7 +11739,7 @@
     </row>
     <row r="670" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B670" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C670" s="2">
         <v>3</v>
@@ -11753,7 +11753,7 @@
     </row>
     <row r="671" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B671" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C671" s="2">
         <v>3</v>
@@ -11767,7 +11767,7 @@
     </row>
     <row r="672" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B672" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C672" s="2">
         <v>4</v>
@@ -11781,7 +11781,7 @@
     </row>
     <row r="673" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B673" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C673" s="2">
         <v>4</v>
@@ -11795,7 +11795,7 @@
     </row>
     <row r="674" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B674" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C674" s="2">
         <v>5</v>
@@ -11809,7 +11809,7 @@
     </row>
     <row r="675" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B675" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C675" s="2">
         <v>5</v>
@@ -11823,7 +11823,7 @@
     </row>
     <row r="676" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B676" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C676" s="2">
         <v>1</v>
@@ -11837,7 +11837,7 @@
     </row>
     <row r="677" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B677" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C677" s="2">
         <v>1</v>
@@ -11851,7 +11851,7 @@
     </row>
     <row r="678" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B678" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C678" s="2">
         <v>2</v>
@@ -11865,7 +11865,7 @@
     </row>
     <row r="679" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B679" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C679" s="2">
         <v>2</v>
@@ -11879,7 +11879,7 @@
     </row>
     <row r="680" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B680" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C680" s="2">
         <v>3</v>
@@ -11893,7 +11893,7 @@
     </row>
     <row r="681" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B681" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C681" s="2">
         <v>3</v>
@@ -11907,7 +11907,7 @@
     </row>
     <row r="682" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B682" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C682" s="2">
         <v>4</v>
@@ -11921,7 +11921,7 @@
     </row>
     <row r="683" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B683" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C683" s="2">
         <v>4</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="684" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B684" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C684" s="2">
         <v>5</v>
@@ -11949,7 +11949,7 @@
     </row>
     <row r="685" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B685" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C685" s="2">
         <v>5</v>
@@ -11963,7 +11963,7 @@
     </row>
     <row r="686" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B686" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C686" s="2">
         <v>1</v>
@@ -11977,7 +11977,7 @@
     </row>
     <row r="687" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B687" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C687" s="2">
         <v>1</v>
@@ -11991,7 +11991,7 @@
     </row>
     <row r="688" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B688" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C688" s="2">
         <v>2</v>
@@ -12005,7 +12005,7 @@
     </row>
     <row r="689" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B689" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C689" s="2">
         <v>2</v>
@@ -12019,7 +12019,7 @@
     </row>
     <row r="690" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B690" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C690" s="2">
         <v>3</v>
@@ -12033,7 +12033,7 @@
     </row>
     <row r="691" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B691" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C691" s="2">
         <v>3</v>
@@ -12047,7 +12047,7 @@
     </row>
     <row r="692" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B692" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C692" s="2">
         <v>4</v>
@@ -12061,7 +12061,7 @@
     </row>
     <row r="693" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B693" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C693" s="2">
         <v>4</v>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="694" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B694" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C694" s="2">
         <v>5</v>
@@ -12089,7 +12089,7 @@
     </row>
     <row r="695" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B695" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C695" s="2">
         <v>5</v>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="696" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B696" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C696" s="2">
         <v>1</v>
@@ -12117,7 +12117,7 @@
     </row>
     <row r="697" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B697" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C697" s="2">
         <v>1</v>
@@ -12131,7 +12131,7 @@
     </row>
     <row r="698" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B698" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C698" s="2">
         <v>2</v>
@@ -12145,7 +12145,7 @@
     </row>
     <row r="699" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B699" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C699" s="2">
         <v>2</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="700" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B700" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C700" s="2">
         <v>3</v>
@@ -12173,7 +12173,7 @@
     </row>
     <row r="701" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B701" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C701" s="2">
         <v>3</v>
@@ -12187,7 +12187,7 @@
     </row>
     <row r="702" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B702" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C702" s="2">
         <v>4</v>
@@ -12201,7 +12201,7 @@
     </row>
     <row r="703" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B703" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C703" s="2">
         <v>4</v>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="704" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B704" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C704" s="2">
         <v>5</v>
@@ -12229,7 +12229,7 @@
     </row>
     <row r="705" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B705" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C705" s="2">
         <v>5</v>
@@ -12243,7 +12243,7 @@
     </row>
     <row r="706" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B706" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D706" s="2">
         <v>142</v>
@@ -12254,7 +12254,7 @@
     </row>
     <row r="707" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B707" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C707" s="2">
         <v>1</v>
@@ -12268,7 +12268,7 @@
     </row>
     <row r="708" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B708" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C708" s="2">
         <v>1</v>
@@ -12282,7 +12282,7 @@
     </row>
     <row r="709" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B709" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C709" s="2">
         <v>2</v>
@@ -12296,7 +12296,7 @@
     </row>
     <row r="710" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B710" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C710" s="2">
         <v>2</v>
@@ -12310,7 +12310,7 @@
     </row>
     <row r="711" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B711" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C711" s="2">
         <v>3</v>
@@ -12324,7 +12324,7 @@
     </row>
     <row r="712" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B712" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C712" s="2">
         <v>3</v>
@@ -12338,7 +12338,7 @@
     </row>
     <row r="713" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B713" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C713" s="2">
         <v>4</v>
@@ -12352,7 +12352,7 @@
     </row>
     <row r="714" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B714" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C714" s="2">
         <v>4</v>
@@ -12366,7 +12366,7 @@
     </row>
     <row r="715" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B715" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C715" s="2">
         <v>5</v>
@@ -12380,7 +12380,7 @@
     </row>
     <row r="716" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B716" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C716" s="2">
         <v>5</v>
@@ -12394,7 +12394,7 @@
     </row>
     <row r="717" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B717" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C717" s="2">
         <v>1</v>
@@ -12408,7 +12408,7 @@
     </row>
     <row r="718" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B718" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C718" s="2">
         <v>1</v>
@@ -12422,7 +12422,7 @@
     </row>
     <row r="719" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B719" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C719" s="2">
         <v>2</v>
@@ -12436,7 +12436,7 @@
     </row>
     <row r="720" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B720" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C720" s="2">
         <v>2</v>
@@ -12450,7 +12450,7 @@
     </row>
     <row r="721" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B721" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C721" s="2">
         <v>3</v>
@@ -12464,7 +12464,7 @@
     </row>
     <row r="722" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B722" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C722" s="2">
         <v>3</v>
@@ -12478,7 +12478,7 @@
     </row>
     <row r="723" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B723" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C723" s="2">
         <v>4</v>
@@ -12492,7 +12492,7 @@
     </row>
     <row r="724" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B724" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C724" s="2">
         <v>4</v>
@@ -12506,7 +12506,7 @@
     </row>
     <row r="725" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B725" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C725" s="2">
         <v>5</v>
@@ -12520,7 +12520,7 @@
     </row>
     <row r="726" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B726" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C726" s="2">
         <v>5</v>
@@ -12534,7 +12534,7 @@
     </row>
     <row r="727" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B727" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C727" s="2">
         <v>1</v>
@@ -12548,7 +12548,7 @@
     </row>
     <row r="728" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B728" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C728" s="2">
         <v>1</v>
@@ -12562,7 +12562,7 @@
     </row>
     <row r="729" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B729" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C729" s="2">
         <v>2</v>
@@ -12576,7 +12576,7 @@
     </row>
     <row r="730" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B730" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C730" s="2">
         <v>2</v>
@@ -12590,7 +12590,7 @@
     </row>
     <row r="731" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B731" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C731" s="2">
         <v>3</v>
@@ -12604,7 +12604,7 @@
     </row>
     <row r="732" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B732" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C732" s="2">
         <v>3</v>
@@ -12618,7 +12618,7 @@
     </row>
     <row r="733" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B733" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C733" s="2">
         <v>4</v>
@@ -12632,7 +12632,7 @@
     </row>
     <row r="734" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B734" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C734" s="2">
         <v>4</v>
@@ -12646,7 +12646,7 @@
     </row>
     <row r="735" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B735" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C735" s="2">
         <v>5</v>
@@ -12660,7 +12660,7 @@
     </row>
     <row r="736" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B736" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C736" s="2">
         <v>5</v>
@@ -12674,7 +12674,7 @@
     </row>
     <row r="737" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B737" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C737" s="2">
         <v>1</v>
@@ -12688,7 +12688,7 @@
     </row>
     <row r="738" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B738" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C738" s="2">
         <v>1</v>
@@ -12702,7 +12702,7 @@
     </row>
     <row r="739" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B739" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C739" s="2">
         <v>2</v>
@@ -12716,7 +12716,7 @@
     </row>
     <row r="740" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B740" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C740" s="2">
         <v>2</v>
@@ -12730,7 +12730,7 @@
     </row>
     <row r="741" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B741" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C741" s="2">
         <v>3</v>
@@ -12744,7 +12744,7 @@
     </row>
     <row r="742" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B742" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C742" s="2">
         <v>3</v>
@@ -12758,7 +12758,7 @@
     </row>
     <row r="743" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B743" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C743" s="2">
         <v>4</v>
@@ -12772,7 +12772,7 @@
     </row>
     <row r="744" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B744" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C744" s="2">
         <v>4</v>
@@ -12786,7 +12786,7 @@
     </row>
     <row r="745" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B745" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C745" s="2">
         <v>5</v>
@@ -12800,7 +12800,7 @@
     </row>
     <row r="746" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B746" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C746" s="2">
         <v>5</v>
@@ -12814,7 +12814,7 @@
     </row>
     <row r="747" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B747" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C747" s="2">
         <v>6</v>
@@ -12826,12 +12826,12 @@
         <v>7</v>
       </c>
       <c r="G747" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="748" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B748" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C748" s="2">
         <v>6</v>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="749" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B749" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C749" s="2">
         <v>7</v>
@@ -12859,7 +12859,7 @@
     </row>
     <row r="750" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B750" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C750" s="2">
         <v>7</v>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="751" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B751" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C751" s="2">
         <v>8</v>
@@ -12887,7 +12887,7 @@
     </row>
     <row r="752" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B752" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C752" s="2">
         <v>8</v>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="753" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B753" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C753" s="2">
         <v>9</v>
@@ -12915,7 +12915,7 @@
     </row>
     <row r="754" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B754" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C754" s="2">
         <v>9</v>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="755" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B755" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C755" s="2">
         <v>10</v>
@@ -12943,7 +12943,7 @@
     </row>
     <row r="756" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B756" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C756" s="2">
         <v>10</v>
@@ -12957,7 +12957,7 @@
     </row>
     <row r="757" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B757" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C757" s="2">
         <v>6</v>
@@ -12971,7 +12971,7 @@
     </row>
     <row r="758" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B758" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C758" s="2">
         <v>6</v>
@@ -12985,7 +12985,7 @@
     </row>
     <row r="759" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B759" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C759" s="2">
         <v>7</v>
@@ -12999,7 +12999,7 @@
     </row>
     <row r="760" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B760" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C760" s="2">
         <v>7</v>
@@ -13013,7 +13013,7 @@
     </row>
     <row r="761" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B761" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C761" s="2">
         <v>8</v>
@@ -13027,7 +13027,7 @@
     </row>
     <row r="762" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B762" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C762" s="2">
         <v>8</v>
@@ -13041,7 +13041,7 @@
     </row>
     <row r="763" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B763" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C763" s="2">
         <v>9</v>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="764" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B764" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C764" s="2">
         <v>9</v>
@@ -13069,7 +13069,7 @@
     </row>
     <row r="765" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B765" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C765" s="2">
         <v>10</v>
@@ -13083,7 +13083,7 @@
     </row>
     <row r="766" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B766" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C766" s="2">
         <v>10</v>
@@ -13097,7 +13097,7 @@
     </row>
     <row r="767" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B767" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C767" s="2">
         <v>6</v>
@@ -13111,7 +13111,7 @@
     </row>
     <row r="768" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B768" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C768" s="2">
         <v>6</v>
@@ -13125,7 +13125,7 @@
     </row>
     <row r="769" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B769" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C769" s="2">
         <v>7</v>
@@ -13139,7 +13139,7 @@
     </row>
     <row r="770" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B770" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C770" s="2">
         <v>7</v>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="771" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B771" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C771" s="2">
         <v>8</v>
@@ -13167,7 +13167,7 @@
     </row>
     <row r="772" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B772" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C772" s="2">
         <v>8</v>
@@ -13181,7 +13181,7 @@
     </row>
     <row r="773" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B773" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C773" s="2">
         <v>9</v>
@@ -13195,7 +13195,7 @@
     </row>
     <row r="774" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B774" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C774" s="2">
         <v>9</v>
@@ -13209,7 +13209,7 @@
     </row>
     <row r="775" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B775" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C775" s="2">
         <v>10</v>
@@ -13223,7 +13223,7 @@
     </row>
     <row r="776" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B776" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C776" s="2">
         <v>10</v>
@@ -13237,7 +13237,7 @@
     </row>
     <row r="777" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B777" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C777" s="2">
         <v>6</v>
@@ -13251,7 +13251,7 @@
     </row>
     <row r="778" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B778" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C778" s="2">
         <v>6</v>
@@ -13265,7 +13265,7 @@
     </row>
     <row r="779" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B779" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C779" s="2">
         <v>7</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="780" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B780" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C780" s="2">
         <v>7</v>
@@ -13293,7 +13293,7 @@
     </row>
     <row r="781" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B781" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C781" s="2">
         <v>8</v>
@@ -13307,7 +13307,7 @@
     </row>
     <row r="782" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B782" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C782" s="2">
         <v>8</v>
@@ -13321,7 +13321,7 @@
     </row>
     <row r="783" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B783" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C783" s="2">
         <v>9</v>
@@ -13335,7 +13335,7 @@
     </row>
     <row r="784" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B784" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C784" s="2">
         <v>9</v>
@@ -13349,7 +13349,7 @@
     </row>
     <row r="785" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B785" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C785" s="2">
         <v>10</v>
@@ -13363,7 +13363,7 @@
     </row>
     <row r="786" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B786" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C786" s="2">
         <v>10</v>
@@ -13377,7 +13377,7 @@
     </row>
     <row r="787" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B787" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D787" s="2">
         <v>223</v>
@@ -13388,7 +13388,7 @@
     </row>
     <row r="788" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B788" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C788" s="2">
         <v>6</v>
@@ -13402,7 +13402,7 @@
     </row>
     <row r="789" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B789" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C789" s="2">
         <v>6</v>
@@ -13416,7 +13416,7 @@
     </row>
     <row r="790" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B790" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C790" s="2">
         <v>7</v>
@@ -13430,7 +13430,7 @@
     </row>
     <row r="791" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B791" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C791" s="2">
         <v>7</v>
@@ -13444,7 +13444,7 @@
     </row>
     <row r="792" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B792" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C792" s="2">
         <v>8</v>
@@ -13458,7 +13458,7 @@
     </row>
     <row r="793" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B793" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C793" s="2">
         <v>8</v>
@@ -13472,7 +13472,7 @@
     </row>
     <row r="794" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B794" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C794" s="2">
         <v>9</v>
@@ -13486,7 +13486,7 @@
     </row>
     <row r="795" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B795" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C795" s="2">
         <v>9</v>
@@ -13500,7 +13500,7 @@
     </row>
     <row r="796" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B796" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C796" s="2">
         <v>10</v>
@@ -13514,7 +13514,7 @@
     </row>
     <row r="797" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B797" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C797" s="2">
         <v>10</v>
@@ -13528,7 +13528,7 @@
     </row>
     <row r="798" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B798" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C798" s="2">
         <v>6</v>
@@ -13542,7 +13542,7 @@
     </row>
     <row r="799" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B799" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C799" s="2">
         <v>6</v>
@@ -13556,7 +13556,7 @@
     </row>
     <row r="800" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B800" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C800" s="2">
         <v>7</v>
@@ -13570,7 +13570,7 @@
     </row>
     <row r="801" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B801" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C801" s="2">
         <v>7</v>
@@ -13584,7 +13584,7 @@
     </row>
     <row r="802" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B802" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C802" s="2">
         <v>8</v>
@@ -13598,7 +13598,7 @@
     </row>
     <row r="803" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B803" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C803" s="2">
         <v>8</v>
@@ -13612,7 +13612,7 @@
     </row>
     <row r="804" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B804" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C804" s="2">
         <v>9</v>
@@ -13626,7 +13626,7 @@
     </row>
     <row r="805" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B805" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C805" s="2">
         <v>9</v>
@@ -13640,7 +13640,7 @@
     </row>
     <row r="806" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B806" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C806" s="2">
         <v>10</v>
@@ -13654,7 +13654,7 @@
     </row>
     <row r="807" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B807" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C807" s="2">
         <v>10</v>
@@ -13668,7 +13668,7 @@
     </row>
     <row r="808" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B808" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C808" s="2">
         <v>10</v>
@@ -13682,7 +13682,7 @@
     </row>
     <row r="809" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B809" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C809" s="2">
         <v>10</v>
@@ -13696,7 +13696,7 @@
     </row>
     <row r="810" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B810" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C810" s="2">
         <v>9</v>
@@ -13710,7 +13710,7 @@
     </row>
     <row r="811" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B811" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C811" s="2">
         <v>9</v>
@@ -13724,7 +13724,7 @@
     </row>
     <row r="812" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B812" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C812" s="2">
         <v>8</v>
@@ -13738,7 +13738,7 @@
     </row>
     <row r="813" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B813" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C813" s="2">
         <v>8</v>
@@ -13752,7 +13752,7 @@
     </row>
     <row r="814" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B814" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C814" s="2">
         <v>7</v>
@@ -13766,7 +13766,7 @@
     </row>
     <row r="815" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B815" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C815" s="2">
         <v>7</v>
@@ -13780,7 +13780,7 @@
     </row>
     <row r="816" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B816" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C816" s="2">
         <v>6</v>
@@ -13794,7 +13794,7 @@
     </row>
     <row r="817" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B817" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C817" s="2">
         <v>6</v>
@@ -13808,7 +13808,7 @@
     </row>
     <row r="818" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B818" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C818" s="2">
         <v>6</v>
@@ -13822,7 +13822,7 @@
     </row>
     <row r="819" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B819" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C819" s="2">
         <v>6</v>
@@ -13836,7 +13836,7 @@
     </row>
     <row r="820" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B820" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C820" s="2">
         <v>7</v>
@@ -13850,7 +13850,7 @@
     </row>
     <row r="821" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B821" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C821" s="2">
         <v>7</v>
@@ -13864,7 +13864,7 @@
     </row>
     <row r="822" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B822" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C822" s="2">
         <v>8</v>
@@ -13878,7 +13878,7 @@
     </row>
     <row r="823" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B823" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C823" s="2">
         <v>8</v>
@@ -13892,7 +13892,7 @@
     </row>
     <row r="824" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B824" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C824" s="2">
         <v>9</v>
@@ -13906,7 +13906,7 @@
     </row>
     <row r="825" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B825" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C825" s="2">
         <v>9</v>
@@ -13920,7 +13920,7 @@
     </row>
     <row r="826" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B826" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C826" s="2">
         <v>10</v>
@@ -13935,7 +13935,7 @@
     <row r="827" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A827" s="4"/>
       <c r="B827" s="4" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C827" s="4">
         <v>10</v>
@@ -13950,7 +13950,7 @@
     </row>
     <row r="828" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B828" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D828" s="7">
         <v>101</v>
@@ -13961,7 +13961,7 @@
     </row>
     <row r="829" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B829" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C829" s="2">
         <v>6</v>
@@ -13975,7 +13975,7 @@
     </row>
     <row r="830" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B830" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C830" s="2">
         <v>6</v>
@@ -13989,7 +13989,7 @@
     </row>
     <row r="831" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B831" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C831" s="2">
         <v>6</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="832" spans="1:6" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B832" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C832" s="2">
         <v>6</v>
@@ -14017,7 +14017,7 @@
     </row>
     <row r="833" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B833" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C833" s="2">
         <v>6</v>
@@ -14031,7 +14031,7 @@
     </row>
     <row r="834" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B834" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C834" s="2">
         <v>6</v>
@@ -14045,7 +14045,7 @@
     </row>
     <row r="835" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B835" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C835" s="2">
         <v>7</v>
@@ -14059,7 +14059,7 @@
     </row>
     <row r="836" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B836" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C836" s="2">
         <v>7</v>
@@ -14073,7 +14073,7 @@
     </row>
     <row r="837" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B837" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C837" s="2">
         <v>7</v>
@@ -14087,7 +14087,7 @@
     </row>
     <row r="838" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B838" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C838" s="2">
         <v>7</v>
@@ -14101,7 +14101,7 @@
     </row>
     <row r="839" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B839" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C839" s="2">
         <v>7</v>
@@ -14115,7 +14115,7 @@
     </row>
     <row r="840" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B840" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C840" s="2">
         <v>7</v>
@@ -14129,7 +14129,7 @@
     </row>
     <row r="841" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B841" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C841" s="2">
         <v>8</v>
@@ -14143,7 +14143,7 @@
     </row>
     <row r="842" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B842" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C842" s="2">
         <v>8</v>
@@ -14157,7 +14157,7 @@
     </row>
     <row r="843" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B843" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C843" s="2">
         <v>8</v>
@@ -14171,7 +14171,7 @@
     </row>
     <row r="844" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B844" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C844" s="2">
         <v>8</v>
@@ -14185,7 +14185,7 @@
     </row>
     <row r="845" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B845" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C845" s="2">
         <v>8</v>
@@ -14199,7 +14199,7 @@
     </row>
     <row r="846" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B846" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C846" s="2">
         <v>8</v>
@@ -14213,7 +14213,7 @@
     </row>
     <row r="847" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B847" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D847" s="8">
         <v>120</v>
@@ -14224,7 +14224,7 @@
     </row>
     <row r="848" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B848" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C848" s="2">
         <v>8</v>
@@ -14238,7 +14238,7 @@
     </row>
     <row r="849" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B849" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C849" s="2">
         <v>8</v>
@@ -14252,7 +14252,7 @@
     </row>
     <row r="850" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B850" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C850" s="2">
         <v>8</v>
@@ -14266,7 +14266,7 @@
     </row>
     <row r="851" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B851" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C851" s="2">
         <v>8</v>
@@ -14280,7 +14280,7 @@
     </row>
     <row r="852" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B852" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C852" s="2">
         <v>9</v>
@@ -14294,7 +14294,7 @@
     </row>
     <row r="853" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B853" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C853" s="2">
         <v>9</v>
@@ -14308,7 +14308,7 @@
     </row>
     <row r="854" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B854" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C854" s="2">
         <v>9</v>
@@ -14322,7 +14322,7 @@
     </row>
     <row r="855" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B855" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C855" s="2">
         <v>9</v>
@@ -14336,7 +14336,7 @@
     </row>
     <row r="856" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B856" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C856" s="2">
         <v>9</v>
@@ -14350,7 +14350,7 @@
     </row>
     <row r="857" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B857" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C857" s="2">
         <v>9</v>
@@ -14364,7 +14364,7 @@
     </row>
     <row r="858" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B858" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C858" s="2">
         <v>10</v>
@@ -14378,7 +14378,7 @@
     </row>
     <row r="859" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B859" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C859" s="2">
         <v>10</v>
@@ -14392,7 +14392,7 @@
     </row>
     <row r="860" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B860" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C860" s="2">
         <v>10</v>
@@ -14406,7 +14406,7 @@
     </row>
     <row r="861" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B861" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C861" s="2">
         <v>10</v>
@@ -14420,7 +14420,7 @@
     </row>
     <row r="862" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B862" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C862" s="2">
         <v>10</v>
@@ -14434,7 +14434,7 @@
     </row>
     <row r="863" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B863" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C863" s="2">
         <v>10</v>
@@ -14448,7 +14448,7 @@
     </row>
     <row r="864" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B864" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C864" s="2">
         <v>1</v>
@@ -14462,7 +14462,7 @@
     </row>
     <row r="865" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B865" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C865" s="2">
         <v>1</v>
@@ -14476,7 +14476,7 @@
     </row>
     <row r="866" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B866" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C866" s="2">
         <v>1</v>
@@ -14490,7 +14490,7 @@
     </row>
     <row r="867" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B867" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C867" s="2">
         <v>1</v>
@@ -14504,7 +14504,7 @@
     </row>
     <row r="868" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B868" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C868" s="2">
         <v>1</v>
@@ -14518,7 +14518,7 @@
     </row>
     <row r="869" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B869" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C869" s="2">
         <v>1</v>
@@ -14532,7 +14532,7 @@
     </row>
     <row r="870" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B870" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C870" s="2">
         <v>2</v>
@@ -14546,7 +14546,7 @@
     </row>
     <row r="871" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B871" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C871" s="2">
         <v>2</v>
@@ -14560,7 +14560,7 @@
     </row>
     <row r="872" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B872" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C872" s="2">
         <v>2</v>
@@ -14574,7 +14574,7 @@
     </row>
     <row r="873" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B873" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C873" s="2">
         <v>2</v>
@@ -14588,7 +14588,7 @@
     </row>
     <row r="874" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B874" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C874" s="2">
         <v>2</v>
@@ -14602,7 +14602,7 @@
     </row>
     <row r="875" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B875" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C875" s="2">
         <v>2</v>
@@ -14616,7 +14616,7 @@
     </row>
     <row r="876" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B876" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C876" s="2">
         <v>3</v>
@@ -14630,7 +14630,7 @@
     </row>
     <row r="877" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B877" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C877" s="2">
         <v>3</v>
@@ -14644,7 +14644,7 @@
     </row>
     <row r="878" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B878" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C878" s="2">
         <v>3</v>
@@ -14658,7 +14658,7 @@
     </row>
     <row r="879" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B879" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C879" s="2">
         <v>3</v>
@@ -14672,7 +14672,7 @@
     </row>
     <row r="880" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B880" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C880" s="2">
         <v>3</v>
@@ -14686,7 +14686,7 @@
     </row>
     <row r="881" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B881" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C881" s="2">
         <v>3</v>
@@ -14700,7 +14700,7 @@
     </row>
     <row r="882" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B882" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C882" s="2">
         <v>3</v>
@@ -14714,7 +14714,7 @@
     </row>
     <row r="883" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B883" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C883" s="2">
         <v>3</v>
@@ -14728,7 +14728,7 @@
     </row>
     <row r="884" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B884" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C884" s="2">
         <v>3</v>
@@ -14742,7 +14742,7 @@
     </row>
     <row r="885" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B885" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C885" s="2">
         <v>3</v>
@@ -14756,7 +14756,7 @@
     </row>
     <row r="886" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B886" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C886" s="2">
         <v>4</v>
@@ -14770,7 +14770,7 @@
     </row>
     <row r="887" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B887" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C887" s="2">
         <v>4</v>
@@ -14784,7 +14784,7 @@
     </row>
     <row r="888" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B888" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C888" s="2">
         <v>4</v>
@@ -14798,7 +14798,7 @@
     </row>
     <row r="889" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B889" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C889" s="2">
         <v>4</v>
@@ -14812,7 +14812,7 @@
     </row>
     <row r="890" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B890" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C890" s="2">
         <v>4</v>
@@ -14824,12 +14824,12 @@
         <v>22</v>
       </c>
       <c r="G890" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="891" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B891" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C891" s="2">
         <v>4</v>
@@ -14843,7 +14843,7 @@
     </row>
     <row r="892" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B892" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C892" s="2">
         <v>5</v>
@@ -14857,7 +14857,7 @@
     </row>
     <row r="893" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B893" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C893" s="2">
         <v>5</v>
@@ -14871,7 +14871,7 @@
     </row>
     <row r="894" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B894" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C894" s="2">
         <v>5</v>
@@ -14885,7 +14885,7 @@
     </row>
     <row r="895" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B895" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C895" s="2">
         <v>5</v>
@@ -14899,7 +14899,7 @@
     </row>
     <row r="896" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B896" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C896" s="2">
         <v>5</v>
@@ -14913,7 +14913,7 @@
     </row>
     <row r="897" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B897" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C897" s="2">
         <v>5</v>
@@ -14927,7 +14927,7 @@
     </row>
     <row r="898" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B898" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C898" s="2">
         <v>1</v>
@@ -14941,7 +14941,7 @@
     </row>
     <row r="899" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B899" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C899" s="2">
         <v>1</v>
@@ -14955,7 +14955,7 @@
     </row>
     <row r="900" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B900" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C900" s="2">
         <v>2</v>
@@ -14969,7 +14969,7 @@
     </row>
     <row r="901" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B901" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C901" s="2">
         <v>2</v>
@@ -14983,7 +14983,7 @@
     </row>
     <row r="902" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B902" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C902" s="2">
         <v>3</v>
@@ -14997,7 +14997,7 @@
     </row>
     <row r="903" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B903" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C903" s="2">
         <v>3</v>
@@ -15011,7 +15011,7 @@
     </row>
     <row r="904" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B904" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C904" s="2">
         <v>4</v>
@@ -15025,7 +15025,7 @@
     </row>
     <row r="905" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B905" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C905" s="2">
         <v>4</v>
@@ -15039,7 +15039,7 @@
     </row>
     <row r="906" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B906" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C906" s="2">
         <v>5</v>
@@ -15053,7 +15053,7 @@
     </row>
     <row r="907" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B907" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C907" s="2">
         <v>5</v>
@@ -15067,7 +15067,7 @@
     </row>
     <row r="908" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B908" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C908" s="2">
         <v>1</v>
@@ -15081,7 +15081,7 @@
     </row>
     <row r="909" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B909" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C909" s="2">
         <v>1</v>
@@ -15095,7 +15095,7 @@
     </row>
     <row r="910" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B910" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C910" s="2">
         <v>2</v>
@@ -15109,7 +15109,7 @@
     </row>
     <row r="911" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B911" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C911" s="2">
         <v>2</v>
@@ -15123,7 +15123,7 @@
     </row>
     <row r="912" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B912" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C912" s="2">
         <v>3</v>
@@ -15137,7 +15137,7 @@
     </row>
     <row r="913" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B913" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C913" s="2">
         <v>3</v>
@@ -15151,7 +15151,7 @@
     </row>
     <row r="914" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B914" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C914" s="2">
         <v>4</v>
@@ -15165,7 +15165,7 @@
     </row>
     <row r="915" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B915" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C915" s="2">
         <v>4</v>
@@ -15179,7 +15179,7 @@
     </row>
     <row r="916" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B916" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C916" s="2">
         <v>5</v>
@@ -15193,7 +15193,7 @@
     </row>
     <row r="917" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B917" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C917" s="2">
         <v>5</v>
@@ -15207,7 +15207,7 @@
     </row>
     <row r="918" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B918" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C918" s="2">
         <v>1</v>
@@ -15221,7 +15221,7 @@
     </row>
     <row r="919" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B919" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C919" s="2">
         <v>1</v>
@@ -15235,7 +15235,7 @@
     </row>
     <row r="920" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B920" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C920" s="2">
         <v>2</v>
@@ -15249,7 +15249,7 @@
     </row>
     <row r="921" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B921" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C921" s="2">
         <v>2</v>
@@ -15263,7 +15263,7 @@
     </row>
     <row r="922" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B922" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C922" s="2">
         <v>3</v>
@@ -15277,7 +15277,7 @@
     </row>
     <row r="923" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B923" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C923" s="2">
         <v>3</v>
@@ -15291,7 +15291,7 @@
     </row>
     <row r="924" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B924" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C924" s="2">
         <v>4</v>
@@ -15305,7 +15305,7 @@
     </row>
     <row r="925" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B925" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C925" s="2">
         <v>4</v>
@@ -15319,7 +15319,7 @@
     </row>
     <row r="926" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B926" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C926" s="2">
         <v>5</v>
@@ -15333,7 +15333,7 @@
     </row>
     <row r="927" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B927" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C927" s="2">
         <v>5</v>
@@ -15347,7 +15347,7 @@
     </row>
     <row r="928" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B928" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C928" s="2">
         <v>1</v>
@@ -15361,7 +15361,7 @@
     </row>
     <row r="929" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B929" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C929" s="2">
         <v>1</v>
@@ -15375,7 +15375,7 @@
     </row>
     <row r="930" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B930" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C930" s="2">
         <v>2</v>
@@ -15389,7 +15389,7 @@
     </row>
     <row r="931" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B931" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C931" s="2">
         <v>2</v>
@@ -15403,7 +15403,7 @@
     </row>
     <row r="932" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B932" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C932" s="2">
         <v>3</v>
@@ -15417,7 +15417,7 @@
     </row>
     <row r="933" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B933" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C933" s="2">
         <v>3</v>
@@ -15431,7 +15431,7 @@
     </row>
     <row r="934" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B934" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C934" s="2">
         <v>4</v>
@@ -15445,7 +15445,7 @@
     </row>
     <row r="935" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B935" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C935" s="2">
         <v>4</v>
@@ -15459,7 +15459,7 @@
     </row>
     <row r="936" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B936" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C936" s="2">
         <v>5</v>
@@ -15473,7 +15473,7 @@
     </row>
     <row r="937" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B937" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C937" s="2">
         <v>5</v>
@@ -15488,7 +15488,7 @@
     <row r="938" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A938" s="4"/>
       <c r="B938" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C938" s="4"/>
       <c r="D938" s="11">
@@ -15502,7 +15502,7 @@
     </row>
     <row r="939" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B939" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C939" s="2">
         <v>1</v>
@@ -15516,7 +15516,7 @@
     </row>
     <row r="940" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B940" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C940" s="2">
         <v>1</v>
@@ -15530,7 +15530,7 @@
     </row>
     <row r="941" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B941" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C941" s="2">
         <v>1</v>
@@ -15544,7 +15544,7 @@
     </row>
     <row r="942" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B942" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C942" s="2">
         <v>1</v>
@@ -15558,7 +15558,7 @@
     </row>
     <row r="943" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B943" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C943" s="2">
         <v>1</v>
@@ -15572,7 +15572,7 @@
     </row>
     <row r="944" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B944" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C944" s="2">
         <v>1</v>
@@ -15586,7 +15586,7 @@
     </row>
     <row r="945" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B945" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C945" s="2">
         <v>2</v>
@@ -15600,7 +15600,7 @@
     </row>
     <row r="946" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B946" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C946" s="2">
         <v>2</v>
@@ -15614,7 +15614,7 @@
     </row>
     <row r="947" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B947" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C947" s="2">
         <v>2</v>
@@ -15628,7 +15628,7 @@
     </row>
     <row r="948" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B948" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C948" s="2">
         <v>2</v>
@@ -15642,7 +15642,7 @@
     </row>
     <row r="949" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B949" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C949" s="2">
         <v>2</v>
@@ -15656,7 +15656,7 @@
     </row>
     <row r="950" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B950" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C950" s="2">
         <v>2</v>
@@ -15670,7 +15670,7 @@
     </row>
     <row r="951" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B951" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C951" s="2">
         <v>3</v>
@@ -15684,7 +15684,7 @@
     </row>
     <row r="952" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B952" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C952" s="2">
         <v>3</v>
@@ -15698,7 +15698,7 @@
     </row>
     <row r="953" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B953" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C953" s="2">
         <v>3</v>
@@ -15712,7 +15712,7 @@
     </row>
     <row r="954" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B954" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C954" s="2">
         <v>3</v>
@@ -15726,7 +15726,7 @@
     </row>
     <row r="955" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B955" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C955" s="2">
         <v>3</v>
@@ -15740,7 +15740,7 @@
     </row>
     <row r="956" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B956" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C956" s="2">
         <v>3</v>
@@ -15754,7 +15754,7 @@
     </row>
     <row r="957" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B957" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C957" s="2">
         <v>4</v>
@@ -15768,7 +15768,7 @@
     </row>
     <row r="958" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B958" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C958" s="2">
         <v>4</v>
@@ -15782,7 +15782,7 @@
     </row>
     <row r="959" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B959" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C959" s="2">
         <v>4</v>
@@ -15796,7 +15796,7 @@
     </row>
     <row r="960" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B960" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C960" s="2">
         <v>4</v>
@@ -15810,7 +15810,7 @@
     </row>
     <row r="961" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B961" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C961" s="2">
         <v>4</v>
@@ -15824,7 +15824,7 @@
     </row>
     <row r="962" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B962" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C962" s="2">
         <v>4</v>
@@ -15838,7 +15838,7 @@
     </row>
     <row r="963" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B963" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C963" s="2">
         <v>5</v>
@@ -15852,7 +15852,7 @@
     </row>
     <row r="964" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B964" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C964" s="2">
         <v>5</v>
@@ -15866,7 +15866,7 @@
     </row>
     <row r="965" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B965" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C965" s="2">
         <v>5</v>
@@ -15880,7 +15880,7 @@
     </row>
     <row r="966" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B966" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C966" s="2">
         <v>5</v>
@@ -15894,7 +15894,7 @@
     </row>
     <row r="967" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B967" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C967" s="2">
         <v>5</v>
@@ -15908,7 +15908,7 @@
     </row>
     <row r="968" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B968" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C968" s="2">
         <v>5</v>
@@ -15922,7 +15922,7 @@
     </row>
     <row r="969" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B969" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C969" s="2">
         <v>6</v>
@@ -15936,7 +15936,7 @@
     </row>
     <row r="970" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B970" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C970" s="2">
         <v>6</v>
@@ -15950,7 +15950,7 @@
     </row>
     <row r="971" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B971" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C971" s="2">
         <v>6</v>
@@ -15964,7 +15964,7 @@
     </row>
     <row r="972" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B972" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C972" s="2">
         <v>6</v>
@@ -15978,7 +15978,7 @@
     </row>
     <row r="973" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B973" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C973" s="2">
         <v>6</v>
@@ -15992,7 +15992,7 @@
     </row>
     <row r="974" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B974" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C974" s="2">
         <v>6</v>
@@ -16006,7 +16006,7 @@
     </row>
     <row r="975" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B975" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C975" s="2">
         <v>4</v>
@@ -16020,7 +16020,7 @@
     </row>
     <row r="976" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B976" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C976" s="2">
         <v>4</v>
@@ -16034,7 +16034,7 @@
     </row>
     <row r="977" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B977" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C977" s="8">
         <v>5</v>
@@ -16048,7 +16048,7 @@
     </row>
     <row r="978" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B978" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C978" s="8">
         <v>5</v>
@@ -16062,7 +16062,7 @@
     </row>
     <row r="979" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B979" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C979" s="8">
         <v>6</v>
@@ -16076,7 +16076,7 @@
     </row>
     <row r="980" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B980" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C980" s="8">
         <v>6</v>
@@ -16090,7 +16090,7 @@
     </row>
     <row r="981" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B981" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C981" s="2">
         <v>4</v>
@@ -16104,7 +16104,7 @@
     </row>
     <row r="982" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B982" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C982" s="2">
         <v>4</v>
@@ -16118,7 +16118,7 @@
     </row>
     <row r="983" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B983" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C983" s="2">
         <v>5</v>
@@ -16132,7 +16132,7 @@
     </row>
     <row r="984" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B984" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C984" s="2">
         <v>5</v>
@@ -16146,7 +16146,7 @@
     </row>
     <row r="985" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B985" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C985" s="2">
         <v>6</v>
@@ -16160,7 +16160,7 @@
     </row>
     <row r="986" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B986" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C986" s="2">
         <v>6</v>
@@ -16174,7 +16174,7 @@
     </row>
     <row r="987" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B987" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C987" s="2">
         <v>4</v>
@@ -16188,7 +16188,7 @@
     </row>
     <row r="988" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B988" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C988" s="2">
         <v>4</v>
@@ -16202,7 +16202,7 @@
     </row>
     <row r="989" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B989" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C989" s="2">
         <v>5</v>
@@ -16216,7 +16216,7 @@
     </row>
     <row r="990" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B990" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C990" s="2">
         <v>5</v>
@@ -16230,7 +16230,7 @@
     </row>
     <row r="991" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B991" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C991" s="2">
         <v>6</v>
@@ -16244,7 +16244,7 @@
     </row>
     <row r="992" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B992" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C992" s="2">
         <v>6</v>
@@ -16258,7 +16258,7 @@
     </row>
     <row r="993" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B993" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C993" s="2">
         <v>4</v>
@@ -16272,7 +16272,7 @@
     </row>
     <row r="994" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B994" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C994" s="2">
         <v>4</v>
@@ -16286,7 +16286,7 @@
     </row>
     <row r="995" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B995" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C995" s="2">
         <v>5</v>
@@ -16300,7 +16300,7 @@
     </row>
     <row r="996" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B996" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C996" s="2">
         <v>5</v>
@@ -16314,7 +16314,7 @@
     </row>
     <row r="997" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B997" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C997" s="2">
         <v>6</v>
@@ -16328,7 +16328,7 @@
     </row>
     <row r="998" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B998" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C998" s="2">
         <v>6</v>
@@ -16342,7 +16342,7 @@
     </row>
     <row r="999" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B999" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C999" s="2">
         <v>4</v>
@@ -16351,12 +16351,12 @@
         <v>162</v>
       </c>
       <c r="E999" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1000" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1000" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1000" s="2">
         <v>4</v>
@@ -16365,12 +16365,12 @@
         <v>163</v>
       </c>
       <c r="E1000" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1001" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1001" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1001" s="2">
         <v>6</v>
@@ -16379,12 +16379,12 @@
         <v>164</v>
       </c>
       <c r="E1001" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="1002" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1002" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C1002" s="2">
         <v>6</v>
@@ -16393,12 +16393,12 @@
         <v>165</v>
       </c>
       <c r="E1002" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="1003" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1003" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D1003" s="2">
         <v>166</v>
@@ -16409,7 +16409,7 @@
     </row>
     <row r="1004" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1004" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1004" s="2">
         <v>101</v>
@@ -16420,7 +16420,7 @@
     </row>
     <row r="1005" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1005" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1005" s="2">
         <v>1</v>
@@ -16434,7 +16434,7 @@
     </row>
     <row r="1006" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1006" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1006" s="2">
         <v>1</v>
@@ -16448,7 +16448,7 @@
     </row>
     <row r="1007" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1007" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1007" s="2">
         <v>2</v>
@@ -16462,7 +16462,7 @@
     </row>
     <row r="1008" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1008" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1008" s="2">
         <v>2</v>
@@ -16476,7 +16476,7 @@
     </row>
     <row r="1009" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1009" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1009" s="2">
         <v>3</v>
@@ -16490,7 +16490,7 @@
     </row>
     <row r="1010" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1010" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1010" s="2">
         <v>3</v>
@@ -16504,7 +16504,7 @@
     </row>
     <row r="1011" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1011" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1011" s="2">
         <v>4</v>
@@ -16518,7 +16518,7 @@
     </row>
     <row r="1012" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1012" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1012" s="2">
         <v>4</v>
@@ -16532,7 +16532,7 @@
     </row>
     <row r="1013" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1013" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1013" s="2">
         <v>5</v>
@@ -16546,7 +16546,7 @@
     </row>
     <row r="1014" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1014" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1014" s="2">
         <v>5</v>
@@ -16560,7 +16560,7 @@
     </row>
     <row r="1015" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1015" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1015" s="2">
         <v>1</v>
@@ -16574,7 +16574,7 @@
     </row>
     <row r="1016" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1016" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1016" s="2">
         <v>1</v>
@@ -16588,7 +16588,7 @@
     </row>
     <row r="1017" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1017" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1017" s="2">
         <v>2</v>
@@ -16602,7 +16602,7 @@
     </row>
     <row r="1018" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1018" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1018" s="2">
         <v>2</v>
@@ -16616,7 +16616,7 @@
     </row>
     <row r="1019" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1019" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1019" s="2">
         <v>3</v>
@@ -16630,7 +16630,7 @@
     </row>
     <row r="1020" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1020" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1020" s="2">
         <v>3</v>
@@ -16644,7 +16644,7 @@
     </row>
     <row r="1021" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1021" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1021" s="2">
         <v>4</v>
@@ -16658,7 +16658,7 @@
     </row>
     <row r="1022" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1022" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1022" s="2">
         <v>4</v>
@@ -16672,7 +16672,7 @@
     </row>
     <row r="1023" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1023" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1023" s="2">
         <v>5</v>
@@ -16686,7 +16686,7 @@
     </row>
     <row r="1024" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1024" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1024" s="2">
         <v>5</v>
@@ -16700,7 +16700,7 @@
     </row>
     <row r="1025" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1025" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1025" s="2">
         <v>1</v>
@@ -16714,7 +16714,7 @@
     </row>
     <row r="1026" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1026" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1026" s="2">
         <v>1</v>
@@ -16728,7 +16728,7 @@
     </row>
     <row r="1027" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1027" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1027" s="2">
         <v>2</v>
@@ -16742,7 +16742,7 @@
     </row>
     <row r="1028" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1028" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1028" s="2">
         <v>2</v>
@@ -16756,7 +16756,7 @@
     </row>
     <row r="1029" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1029" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1029" s="2">
         <v>3</v>
@@ -16770,7 +16770,7 @@
     </row>
     <row r="1030" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1030" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1030" s="2">
         <v>3</v>
@@ -16784,7 +16784,7 @@
     </row>
     <row r="1031" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1031" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1031" s="2">
         <v>4</v>
@@ -16798,7 +16798,7 @@
     </row>
     <row r="1032" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1032" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1032" s="2">
         <v>4</v>
@@ -16812,7 +16812,7 @@
     </row>
     <row r="1033" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1033" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1033" s="2">
         <v>5</v>
@@ -16826,7 +16826,7 @@
     </row>
     <row r="1034" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1034" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1034" s="2">
         <v>5</v>
@@ -16840,7 +16840,7 @@
     </row>
     <row r="1035" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1035" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1035" s="2">
         <v>1</v>
@@ -16854,7 +16854,7 @@
     </row>
     <row r="1036" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1036" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1036" s="2">
         <v>1</v>
@@ -16868,7 +16868,7 @@
     </row>
     <row r="1037" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1037" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1037" s="2">
         <v>2</v>
@@ -16882,7 +16882,7 @@
     </row>
     <row r="1038" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1038" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1038" s="2">
         <v>2</v>
@@ -16896,7 +16896,7 @@
     </row>
     <row r="1039" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1039" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1039" s="2">
         <v>3</v>
@@ -16910,7 +16910,7 @@
     </row>
     <row r="1040" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1040" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1040" s="2">
         <v>3</v>
@@ -16924,7 +16924,7 @@
     </row>
     <row r="1041" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1041" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1041" s="2">
         <v>4</v>
@@ -16938,7 +16938,7 @@
     </row>
     <row r="1042" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1042" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1042" s="2">
         <v>4</v>
@@ -16952,7 +16952,7 @@
     </row>
     <row r="1043" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1043" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1043" s="2">
         <v>5</v>
@@ -16966,7 +16966,7 @@
     </row>
     <row r="1044" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1044" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1044" s="2">
         <v>5</v>
@@ -16980,7 +16980,7 @@
     </row>
     <row r="1045" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1045" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1045" s="2">
         <v>6</v>
@@ -16994,7 +16994,7 @@
     </row>
     <row r="1046" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1046" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1046" s="2">
         <v>6</v>
@@ -17008,7 +17008,7 @@
     </row>
     <row r="1047" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1047" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1047" s="2">
         <v>7</v>
@@ -17022,7 +17022,7 @@
     </row>
     <row r="1048" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1048" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1048" s="2">
         <v>7</v>
@@ -17036,7 +17036,7 @@
     </row>
     <row r="1049" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1049" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1049" s="2">
         <v>8</v>
@@ -17050,7 +17050,7 @@
     </row>
     <row r="1050" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1050" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1050" s="2">
         <v>8</v>
@@ -17064,7 +17064,7 @@
     </row>
     <row r="1051" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1051" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1051" s="2">
         <v>9</v>
@@ -17078,7 +17078,7 @@
     </row>
     <row r="1052" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1052" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1052" s="2">
         <v>9</v>
@@ -17092,7 +17092,7 @@
     </row>
     <row r="1053" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1053" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1053" s="2">
         <v>10</v>
@@ -17106,7 +17106,7 @@
     </row>
     <row r="1054" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1054" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1054" s="2">
         <v>10</v>
@@ -17120,7 +17120,7 @@
     </row>
     <row r="1055" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1055" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1055" s="2">
         <v>10</v>
@@ -17134,7 +17134,7 @@
     </row>
     <row r="1056" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1056" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1056" s="2">
         <v>10</v>
@@ -17148,7 +17148,7 @@
     </row>
     <row r="1057" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1057" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1057" s="2">
         <v>9</v>
@@ -17162,7 +17162,7 @@
     </row>
     <row r="1058" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1058" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1058" s="2">
         <v>9</v>
@@ -17176,7 +17176,7 @@
     </row>
     <row r="1059" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1059" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1059" s="2">
         <v>8</v>
@@ -17190,7 +17190,7 @@
     </row>
     <row r="1060" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1060" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1060" s="2">
         <v>8</v>
@@ -17204,7 +17204,7 @@
     </row>
     <row r="1061" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1061" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1061" s="2">
         <v>7</v>
@@ -17218,7 +17218,7 @@
     </row>
     <row r="1062" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1062" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1062" s="2">
         <v>7</v>
@@ -17232,7 +17232,7 @@
     </row>
     <row r="1063" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1063" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1063" s="2">
         <v>6</v>
@@ -17246,7 +17246,7 @@
     </row>
     <row r="1064" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1064" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1064" s="2">
         <v>6</v>
@@ -17260,7 +17260,7 @@
     </row>
     <row r="1065" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1065" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1065" s="2">
         <v>6</v>
@@ -17274,7 +17274,7 @@
     </row>
     <row r="1066" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1066" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1066" s="2">
         <v>6</v>
@@ -17288,7 +17288,7 @@
     </row>
     <row r="1067" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1067" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1067" s="2">
         <v>7</v>
@@ -17302,7 +17302,7 @@
     </row>
     <row r="1068" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1068" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1068" s="2">
         <v>7</v>
@@ -17316,7 +17316,7 @@
     </row>
     <row r="1069" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1069" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1069" s="2">
         <v>8</v>
@@ -17330,7 +17330,7 @@
     </row>
     <row r="1070" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1070" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1070" s="2">
         <v>8</v>
@@ -17344,7 +17344,7 @@
     </row>
     <row r="1071" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1071" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1071" s="2">
         <v>9</v>
@@ -17358,7 +17358,7 @@
     </row>
     <row r="1072" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1072" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1072" s="2">
         <v>9</v>
@@ -17372,7 +17372,7 @@
     </row>
     <row r="1073" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1073" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1073" s="2">
         <v>10</v>
@@ -17386,7 +17386,7 @@
     </row>
     <row r="1074" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1074" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1074" s="2">
         <v>10</v>
@@ -17400,7 +17400,7 @@
     </row>
     <row r="1075" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1075" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1075" s="2">
         <v>10</v>
@@ -17414,7 +17414,7 @@
     </row>
     <row r="1076" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1076" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1076" s="2">
         <v>10</v>
@@ -17428,7 +17428,7 @@
     </row>
     <row r="1077" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1077" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1077" s="2">
         <v>9</v>
@@ -17442,7 +17442,7 @@
     </row>
     <row r="1078" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1078" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1078" s="2">
         <v>9</v>
@@ -17456,7 +17456,7 @@
     </row>
     <row r="1079" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1079" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1079" s="2">
         <v>8</v>
@@ -17470,7 +17470,7 @@
     </row>
     <row r="1080" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1080" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1080" s="2">
         <v>8</v>
@@ -17484,7 +17484,7 @@
     </row>
     <row r="1081" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1081" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1081" s="2">
         <v>7</v>
@@ -17498,7 +17498,7 @@
     </row>
     <row r="1082" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1082" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1082" s="2">
         <v>7</v>
@@ -17512,7 +17512,7 @@
     </row>
     <row r="1083" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1083" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1083" s="2">
         <v>6</v>
@@ -17526,7 +17526,7 @@
     </row>
     <row r="1084" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1084" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1084" s="2">
         <v>6</v>
@@ -17540,7 +17540,7 @@
     </row>
     <row r="1085" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1085" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1085" s="2">
         <v>6</v>
@@ -17554,7 +17554,7 @@
     </row>
     <row r="1086" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1086" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1086" s="2">
         <v>6</v>
@@ -17568,7 +17568,7 @@
     </row>
     <row r="1087" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1087" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1087" s="2">
         <v>7</v>
@@ -17582,7 +17582,7 @@
     </row>
     <row r="1088" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1088" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1088" s="2">
         <v>7</v>
@@ -17596,7 +17596,7 @@
     </row>
     <row r="1089" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1089" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1089" s="2">
         <v>8</v>
@@ -17610,7 +17610,7 @@
     </row>
     <row r="1090" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1090" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1090" s="2">
         <v>8</v>
@@ -17624,7 +17624,7 @@
     </row>
     <row r="1091" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1091" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1091" s="2">
         <v>9</v>
@@ -17638,7 +17638,7 @@
     </row>
     <row r="1092" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1092" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1092" s="2">
         <v>9</v>
@@ -17652,7 +17652,7 @@
     </row>
     <row r="1093" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1093" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1093" s="2">
         <v>10</v>
@@ -17666,7 +17666,7 @@
     </row>
     <row r="1094" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1094" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1094" s="2">
         <v>10</v>
@@ -17680,7 +17680,7 @@
     </row>
     <row r="1095" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1095" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D1095" s="2">
         <v>192</v>
@@ -17691,7 +17691,7 @@
     </row>
     <row r="1096" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1096" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1096" s="8">
         <v>10</v>
@@ -17705,7 +17705,7 @@
     </row>
     <row r="1097" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1097" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1097" s="8">
         <v>10</v>
@@ -17719,7 +17719,7 @@
     </row>
     <row r="1098" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1098" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1098" s="8">
         <v>9</v>
@@ -17733,7 +17733,7 @@
     </row>
     <row r="1099" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1099" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1099" s="8">
         <v>9</v>
@@ -17747,7 +17747,7 @@
     </row>
     <row r="1100" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1100" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1100" s="8">
         <v>8</v>
@@ -17761,7 +17761,7 @@
     </row>
     <row r="1101" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1101" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1101" s="8">
         <v>8</v>
@@ -17775,7 +17775,7 @@
     </row>
     <row r="1102" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1102" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1102" s="8">
         <v>7</v>
@@ -17789,7 +17789,7 @@
     </row>
     <row r="1103" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1103" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1103" s="8">
         <v>7</v>
@@ -17803,7 +17803,7 @@
     </row>
     <row r="1104" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1104" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1104" s="8">
         <v>6</v>
@@ -17817,7 +17817,7 @@
     </row>
     <row r="1105" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1105" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1105" s="8">
         <v>6</v>
@@ -17831,7 +17831,7 @@
     </row>
     <row r="1106" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1106" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1106" s="8">
         <v>6</v>
@@ -17845,7 +17845,7 @@
     </row>
     <row r="1107" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1107" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1107" s="8">
         <v>6</v>
@@ -17859,7 +17859,7 @@
     </row>
     <row r="1108" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1108" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1108" s="8">
         <v>7</v>
@@ -17873,7 +17873,7 @@
     </row>
     <row r="1109" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1109" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1109" s="8">
         <v>7</v>
@@ -17887,7 +17887,7 @@
     </row>
     <row r="1110" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1110" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1110" s="8">
         <v>8</v>
@@ -17901,7 +17901,7 @@
     </row>
     <row r="1111" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1111" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1111" s="8">
         <v>8</v>
@@ -17915,7 +17915,7 @@
     </row>
     <row r="1112" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1112" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1112" s="8">
         <v>9</v>
@@ -17929,7 +17929,7 @@
     </row>
     <row r="1113" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1113" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1113" s="8">
         <v>9</v>
@@ -17943,7 +17943,7 @@
     </row>
     <row r="1114" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1114" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1114" s="8">
         <v>10</v>
@@ -17957,7 +17957,7 @@
     </row>
     <row r="1115" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1115" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1115" s="8">
         <v>10</v>
@@ -17971,7 +17971,7 @@
     </row>
     <row r="1116" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1116" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1116" s="8">
         <v>10</v>
@@ -17985,7 +17985,7 @@
     </row>
     <row r="1117" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1117" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1117" s="8">
         <v>10</v>
@@ -17999,7 +17999,7 @@
     </row>
     <row r="1118" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1118" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1118" s="8">
         <v>9</v>
@@ -18013,7 +18013,7 @@
     </row>
     <row r="1119" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1119" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1119" s="8">
         <v>9</v>
@@ -18027,7 +18027,7 @@
     </row>
     <row r="1120" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1120" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1120" s="8">
         <v>8</v>
@@ -18041,7 +18041,7 @@
     </row>
     <row r="1121" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1121" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1121" s="8">
         <v>8</v>
@@ -18055,7 +18055,7 @@
     </row>
     <row r="1122" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1122" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1122" s="8">
         <v>7</v>
@@ -18069,7 +18069,7 @@
     </row>
     <row r="1123" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1123" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1123" s="8">
         <v>7</v>
@@ -18083,7 +18083,7 @@
     </row>
     <row r="1124" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1124" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1124" s="8">
         <v>6</v>
@@ -18097,7 +18097,7 @@
     </row>
     <row r="1125" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1125" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C1125" s="8">
         <v>6</v>
@@ -18111,7 +18111,7 @@
     </row>
     <row r="1126" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1126" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D1126" s="2">
         <v>101</v>
@@ -18122,7 +18122,7 @@
     </row>
     <row r="1127" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1127" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1127" s="2">
         <v>4</v>
@@ -18136,7 +18136,7 @@
     </row>
     <row r="1128" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1128" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1128" s="2">
         <v>4</v>
@@ -18150,7 +18150,7 @@
     </row>
     <row r="1129" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1129" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1129" s="2">
         <v>4</v>
@@ -18164,7 +18164,7 @@
     </row>
     <row r="1130" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1130" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1130" s="2">
         <v>4</v>
@@ -18178,7 +18178,7 @@
     </row>
     <row r="1131" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1131" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1131" s="2">
         <v>4</v>
@@ -18192,7 +18192,7 @@
     </row>
     <row r="1132" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1132" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1132" s="2">
         <v>4</v>
@@ -18206,7 +18206,7 @@
     </row>
     <row r="1133" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1133" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1133" s="2">
         <v>5</v>
@@ -18220,7 +18220,7 @@
     </row>
     <row r="1134" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1134" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1134" s="2">
         <v>5</v>
@@ -18234,7 +18234,7 @@
     </row>
     <row r="1135" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1135" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1135" s="2">
         <v>5</v>
@@ -18248,7 +18248,7 @@
     </row>
     <row r="1136" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1136" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1136" s="2">
         <v>5</v>
@@ -18262,7 +18262,7 @@
     </row>
     <row r="1137" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1137" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1137" s="2">
         <v>5</v>
@@ -18276,7 +18276,7 @@
     </row>
     <row r="1138" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1138" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1138" s="2">
         <v>5</v>
@@ -18290,7 +18290,7 @@
     </row>
     <row r="1139" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1139" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1139" s="2">
         <v>6</v>
@@ -18304,7 +18304,7 @@
     </row>
     <row r="1140" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1140" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1140" s="2">
         <v>6</v>
@@ -18318,7 +18318,7 @@
     </row>
     <row r="1141" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1141" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1141" s="2">
         <v>6</v>
@@ -18332,7 +18332,7 @@
     </row>
     <row r="1142" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1142" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1142" s="2">
         <v>6</v>
@@ -18346,7 +18346,7 @@
     </row>
     <row r="1143" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1143" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1143" s="2">
         <v>6</v>
@@ -18360,7 +18360,7 @@
     </row>
     <row r="1144" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1144" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1144" s="2">
         <v>6</v>
@@ -18374,7 +18374,7 @@
     </row>
     <row r="1145" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1145" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1145" s="2">
         <v>1</v>
@@ -18388,7 +18388,7 @@
     </row>
     <row r="1146" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1146" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1146" s="2">
         <v>1</v>
@@ -18402,7 +18402,7 @@
     </row>
     <row r="1147" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1147" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1147" s="2">
         <v>1</v>
@@ -18416,7 +18416,7 @@
     </row>
     <row r="1148" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1148" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1148" s="2">
         <v>1</v>
@@ -18430,7 +18430,7 @@
     </row>
     <row r="1149" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1149" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1149" s="2">
         <v>1</v>
@@ -18444,7 +18444,7 @@
     </row>
     <row r="1150" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1150" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1150" s="2">
         <v>1</v>
@@ -18458,7 +18458,7 @@
     </row>
     <row r="1151" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1151" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1151" s="2">
         <v>2</v>
@@ -18472,7 +18472,7 @@
     </row>
     <row r="1152" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1152" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1152" s="2">
         <v>2</v>
@@ -18486,7 +18486,7 @@
     </row>
     <row r="1153" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1153" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1153" s="2">
         <v>2</v>
@@ -18500,7 +18500,7 @@
     </row>
     <row r="1154" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1154" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1154" s="2">
         <v>2</v>
@@ -18514,7 +18514,7 @@
     </row>
     <row r="1155" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1155" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1155" s="2">
         <v>2</v>
@@ -18528,7 +18528,7 @@
     </row>
     <row r="1156" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1156" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1156" s="2">
         <v>2</v>
@@ -18542,7 +18542,7 @@
     </row>
     <row r="1157" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1157" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1157" s="2">
         <v>2</v>
@@ -18556,7 +18556,7 @@
     </row>
     <row r="1158" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1158" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1158" s="2">
         <v>2</v>
@@ -18570,7 +18570,7 @@
     </row>
     <row r="1159" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1159" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1159" s="2">
         <v>2</v>
@@ -18584,7 +18584,7 @@
     </row>
     <row r="1160" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1160" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1160" s="2">
         <v>2</v>
@@ -18598,7 +18598,7 @@
     </row>
     <row r="1161" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1161" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1161" s="2">
         <v>3</v>
@@ -18612,7 +18612,7 @@
     </row>
     <row r="1162" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1162" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1162" s="2">
         <v>3</v>
@@ -18626,7 +18626,7 @@
     </row>
     <row r="1163" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1163" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1163" s="2">
         <v>3</v>
@@ -18640,7 +18640,7 @@
     </row>
     <row r="1164" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1164" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1164" s="2">
         <v>3</v>
@@ -18654,7 +18654,7 @@
     </row>
     <row r="1165" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1165" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1165" s="2">
         <v>3</v>
@@ -18668,7 +18668,7 @@
     </row>
     <row r="1166" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1166" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1166" s="2">
         <v>3</v>
@@ -18682,7 +18682,7 @@
     </row>
     <row r="1167" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1167" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1167" s="2">
         <v>1</v>
@@ -18696,7 +18696,7 @@
     </row>
     <row r="1168" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1168" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1168" s="2">
         <v>1</v>
@@ -18710,7 +18710,7 @@
     </row>
     <row r="1169" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1169" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1169" s="2">
         <v>2</v>
@@ -18724,7 +18724,7 @@
     </row>
     <row r="1170" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1170" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1170" s="2">
         <v>2</v>
@@ -18738,7 +18738,7 @@
     </row>
     <row r="1171" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1171" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1171" s="2">
         <v>3</v>
@@ -18752,7 +18752,7 @@
     </row>
     <row r="1172" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1172" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1172" s="2">
         <v>3</v>
@@ -18766,7 +18766,7 @@
     </row>
     <row r="1173" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1173" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1173" s="2">
         <v>3</v>
@@ -18780,7 +18780,7 @@
     </row>
     <row r="1174" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1174" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1174" s="2">
         <v>3</v>
@@ -18794,7 +18794,7 @@
     </row>
     <row r="1175" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1175" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1175" s="2">
         <v>2</v>
@@ -18808,7 +18808,7 @@
     </row>
     <row r="1176" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1176" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1176" s="2">
         <v>2</v>
@@ -18822,7 +18822,7 @@
     </row>
     <row r="1177" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1177" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1177" s="2">
         <v>1</v>
@@ -18836,7 +18836,7 @@
     </row>
     <row r="1178" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1178" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1178" s="2">
         <v>1</v>
@@ -18850,7 +18850,7 @@
     </row>
     <row r="1179" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1179" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1179" s="2">
         <v>1</v>
@@ -18864,7 +18864,7 @@
     </row>
     <row r="1180" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1180" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1180" s="2">
         <v>1</v>
@@ -18878,7 +18878,7 @@
     </row>
     <row r="1181" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1181" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1181" s="2">
         <v>2</v>
@@ -18892,7 +18892,7 @@
     </row>
     <row r="1182" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1182" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1182" s="2">
         <v>2</v>
@@ -18906,7 +18906,7 @@
     </row>
     <row r="1183" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1183" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1183" s="2">
         <v>3</v>
@@ -18920,7 +18920,7 @@
     </row>
     <row r="1184" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1184" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1184" s="2">
         <v>3</v>
@@ -18934,7 +18934,7 @@
     </row>
     <row r="1185" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1185" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1185" s="2">
         <v>3</v>
@@ -18948,7 +18948,7 @@
     </row>
     <row r="1186" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1186" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1186" s="2">
         <v>3</v>
@@ -18962,7 +18962,7 @@
     </row>
     <row r="1187" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1187" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1187" s="2">
         <v>2</v>
@@ -18976,7 +18976,7 @@
     </row>
     <row r="1188" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1188" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1188" s="2">
         <v>2</v>
@@ -18990,7 +18990,7 @@
     </row>
     <row r="1189" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1189" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1189" s="2">
         <v>1</v>
@@ -19004,7 +19004,7 @@
     </row>
     <row r="1190" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1190" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="C1190" s="2">
         <v>1</v>
@@ -19018,7 +19018,7 @@
     </row>
     <row r="1191" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B1191" s="2" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D1191" s="2">
         <v>166</v>

--- a/raw_ts_data/fd/fd12_ts1.xlsx
+++ b/raw_ts_data/fd/fd12_ts1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\samal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C5EE90-060E-4D6F-8C0D-61849D65211A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{310B657F-9D29-4B1E-8560-6993EF34831E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A5253AB-7991-5C42-B2D2-1B4C073D839F}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1A5253AB-7991-5C42-B2D2-1B4C073D839F}"/>
   </bookViews>
   <sheets>
     <sheet name="Total Station 1 (Musk Ox)" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2378" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2380" uniqueCount="78">
   <si>
     <t>Reach</t>
   </si>
@@ -265,6 +265,12 @@
   </si>
   <si>
     <t>EP01</t>
+  </si>
+  <si>
+    <t>ERRORCODE</t>
+  </si>
+  <si>
+    <t>ADJUSTMENT</t>
   </si>
 </sst>
 </file>
@@ -687,8 +693,8 @@
   <dimension ref="A1:AC1191"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1184" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1126" sqref="B1126"/>
+      <pane ySplit="1" topLeftCell="A695" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G930" sqref="G930"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -716,8 +722,12 @@
       <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
@@ -905,6 +915,9 @@
       <c r="G11" s="2" t="s">
         <v>15</v>
       </c>
+      <c r="H11" s="2">
+        <v>9</v>
+      </c>
     </row>
     <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="2" t="s">
@@ -941,6 +954,9 @@
       </c>
       <c r="G13" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="H13" s="2">
+        <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
@@ -1612,6 +1628,12 @@
       <c r="G51" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="H51">
+        <v>2</v>
+      </c>
+      <c r="I51">
+        <v>2.02</v>
+      </c>
     </row>
     <row r="52" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A52" s="3"/>
@@ -2164,7 +2186,7 @@
       </c>
       <c r="G80" s="3"/>
     </row>
-    <row r="81" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A81" s="3"/>
       <c r="B81" s="3" t="s">
         <v>71</v>
@@ -2183,7 +2205,7 @@
       </c>
       <c r="G81" s="3"/>
     </row>
-    <row r="82" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A82" s="3"/>
       <c r="B82" s="3" t="s">
         <v>71</v>
@@ -2202,7 +2224,7 @@
       </c>
       <c r="G82" s="3"/>
     </row>
-    <row r="83" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A83" s="3"/>
       <c r="B83" s="3" t="s">
         <v>71</v>
@@ -2221,7 +2243,7 @@
       </c>
       <c r="G83" s="3"/>
     </row>
-    <row r="84" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A84" s="3"/>
       <c r="B84" s="3" t="s">
         <v>71</v>
@@ -2240,7 +2262,7 @@
       </c>
       <c r="G84" s="3"/>
     </row>
-    <row r="85" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A85" s="3"/>
       <c r="B85" s="3" t="s">
         <v>71</v>
@@ -2259,7 +2281,7 @@
       </c>
       <c r="G85" s="3"/>
     </row>
-    <row r="86" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A86" s="3"/>
       <c r="B86" s="3" t="s">
         <v>71</v>
@@ -2278,7 +2300,7 @@
       </c>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A87" s="3"/>
       <c r="B87" s="3" t="s">
         <v>71</v>
@@ -2297,7 +2319,7 @@
       </c>
       <c r="G87" s="3"/>
     </row>
-    <row r="88" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A88" s="3"/>
       <c r="B88" s="3" t="s">
         <v>71</v>
@@ -2316,7 +2338,7 @@
       </c>
       <c r="G88" s="3"/>
     </row>
-    <row r="89" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A89" s="3"/>
       <c r="B89" s="3" t="s">
         <v>71</v>
@@ -2335,7 +2357,7 @@
       </c>
       <c r="G89" s="3"/>
     </row>
-    <row r="90" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A90" s="3"/>
       <c r="B90" s="3" t="s">
         <v>71</v>
@@ -2354,7 +2376,7 @@
       </c>
       <c r="G90" s="3"/>
     </row>
-    <row r="91" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A91" s="3"/>
       <c r="B91" s="3" t="s">
         <v>71</v>
@@ -2373,7 +2395,7 @@
       </c>
       <c r="G91" s="3"/>
     </row>
-    <row r="92" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A92" s="3"/>
       <c r="B92" s="3" t="s">
         <v>71</v>
@@ -2392,7 +2414,7 @@
       </c>
       <c r="G92" s="3"/>
     </row>
-    <row r="93" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A93" s="3"/>
       <c r="B93" s="3" t="s">
         <v>71</v>
@@ -2411,7 +2433,7 @@
       </c>
       <c r="G93" s="3"/>
     </row>
-    <row r="94" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A94" s="3"/>
       <c r="B94" s="3" t="s">
         <v>71</v>
@@ -2430,7 +2452,7 @@
       </c>
       <c r="G94" s="3"/>
     </row>
-    <row r="95" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A95" s="3"/>
       <c r="B95" s="3" t="s">
         <v>71</v>
@@ -2449,7 +2471,7 @@
       </c>
       <c r="G95" s="3"/>
     </row>
-    <row r="96" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A96" s="3"/>
       <c r="B96" s="3" t="s">
         <v>71</v>
@@ -2469,8 +2491,11 @@
       <c r="G96" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H96" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A97" s="3"/>
       <c r="B97" s="3" t="s">
         <v>71</v>
@@ -2490,8 +2515,11 @@
       <c r="G97" s="3" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H97" s="8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A98" s="3"/>
       <c r="B98" s="3" t="s">
         <v>71</v>
@@ -2510,7 +2538,7 @@
       </c>
       <c r="G98" s="3"/>
     </row>
-    <row r="99" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A99" s="3"/>
       <c r="B99" s="3" t="s">
         <v>71</v>
@@ -2529,7 +2557,7 @@
       </c>
       <c r="G99" s="3"/>
     </row>
-    <row r="100" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A100" s="3"/>
       <c r="B100" s="3" t="s">
         <v>71</v>
@@ -2548,7 +2576,7 @@
       </c>
       <c r="G100" s="3"/>
     </row>
-    <row r="101" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A101" s="3"/>
       <c r="B101" s="3" t="s">
         <v>71</v>
@@ -2567,7 +2595,7 @@
       </c>
       <c r="G101" s="3"/>
     </row>
-    <row r="102" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A102" s="3"/>
       <c r="B102" s="3" t="s">
         <v>71</v>
@@ -2586,7 +2614,7 @@
       </c>
       <c r="G102" s="3"/>
     </row>
-    <row r="103" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A103" s="3"/>
       <c r="B103" s="3" t="s">
         <v>71</v>
@@ -2605,7 +2633,7 @@
       </c>
       <c r="G103" s="3"/>
     </row>
-    <row r="104" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A104" s="3"/>
       <c r="B104" s="9" t="s">
         <v>71</v>
@@ -2625,8 +2653,11 @@
       <c r="G104" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="105" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H104" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A105" s="3"/>
       <c r="B105" s="9" t="s">
         <v>71</v>
@@ -2646,8 +2677,11 @@
       <c r="G105" s="9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="106" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H105" s="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A106" s="3"/>
       <c r="B106" s="3" t="s">
         <v>71</v>
@@ -2666,7 +2700,7 @@
       </c>
       <c r="G106" s="3"/>
     </row>
-    <row r="107" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A107" s="3"/>
       <c r="B107" s="3" t="s">
         <v>71</v>
@@ -2685,7 +2719,7 @@
       </c>
       <c r="G107" s="3"/>
     </row>
-    <row r="108" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A108" s="3"/>
       <c r="B108" s="3" t="s">
         <v>71</v>
@@ -2704,7 +2738,7 @@
       </c>
       <c r="G108" s="3"/>
     </row>
-    <row r="109" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A109" s="3"/>
       <c r="B109" s="3" t="s">
         <v>71</v>
@@ -2723,7 +2757,7 @@
       </c>
       <c r="G109" s="3"/>
     </row>
-    <row r="110" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A110" s="3"/>
       <c r="B110" s="3" t="s">
         <v>71</v>
@@ -2742,7 +2776,7 @@
       </c>
       <c r="G110" s="3"/>
     </row>
-    <row r="111" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A111" s="3"/>
       <c r="B111" s="3" t="s">
         <v>71</v>
@@ -2761,7 +2795,7 @@
       </c>
       <c r="G111" s="3"/>
     </row>
-    <row r="112" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A112" s="3"/>
       <c r="B112" s="3" t="s">
         <v>71</v>
@@ -3763,6 +3797,12 @@
       <c r="G163" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="H163">
+        <v>2</v>
+      </c>
+      <c r="I163">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="164" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A164" s="3"/>
@@ -3782,6 +3822,12 @@
         <v>1</v>
       </c>
       <c r="G164" s="3"/>
+      <c r="H164">
+        <v>2</v>
+      </c>
+      <c r="I164">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="165" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A165" s="3"/>
@@ -3801,6 +3847,12 @@
         <v>1</v>
       </c>
       <c r="G165" s="3"/>
+      <c r="H165">
+        <v>2</v>
+      </c>
+      <c r="I165">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="166" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A166" s="3"/>
@@ -3820,6 +3872,12 @@
         <v>1</v>
       </c>
       <c r="G166" s="3"/>
+      <c r="H166">
+        <v>2</v>
+      </c>
+      <c r="I166">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="167" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A167" s="3"/>
@@ -3839,6 +3897,12 @@
         <v>1</v>
       </c>
       <c r="G167" s="3"/>
+      <c r="H167">
+        <v>2</v>
+      </c>
+      <c r="I167">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="168" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B168" s="3" t="s">
@@ -3856,6 +3920,12 @@
       <c r="F168" s="3">
         <v>1</v>
       </c>
+      <c r="H168">
+        <v>2</v>
+      </c>
+      <c r="I168">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="169" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B169" s="3" t="s">
@@ -3873,6 +3943,12 @@
       <c r="F169" s="3">
         <v>1</v>
       </c>
+      <c r="H169">
+        <v>2</v>
+      </c>
+      <c r="I169">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="170" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B170" s="3" t="s">
@@ -3890,6 +3966,12 @@
       <c r="F170" s="3">
         <v>1</v>
       </c>
+      <c r="H170">
+        <v>2</v>
+      </c>
+      <c r="I170">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="171" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B171" s="3" t="s">
@@ -3907,6 +3989,12 @@
       <c r="F171" s="2">
         <v>1</v>
       </c>
+      <c r="H171">
+        <v>2</v>
+      </c>
+      <c r="I171">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="172" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B172" s="3" t="s">
@@ -3924,6 +4012,12 @@
       <c r="F172" s="2">
         <v>5</v>
       </c>
+      <c r="H172">
+        <v>2</v>
+      </c>
+      <c r="I172">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="173" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B173" s="3" t="s">
@@ -3941,6 +4035,12 @@
       <c r="F173" s="2">
         <v>5</v>
       </c>
+      <c r="H173">
+        <v>2</v>
+      </c>
+      <c r="I173">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="174" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B174" s="3" t="s">
@@ -3958,6 +4058,12 @@
       <c r="F174" s="2">
         <v>1</v>
       </c>
+      <c r="H174">
+        <v>2</v>
+      </c>
+      <c r="I174">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="175" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B175" s="3" t="s">
@@ -3975,6 +4081,12 @@
       <c r="F175" s="2">
         <v>1</v>
       </c>
+      <c r="H175">
+        <v>2</v>
+      </c>
+      <c r="I175">
+        <v>2.04</v>
+      </c>
     </row>
     <row r="176" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B176" s="3" t="s">
@@ -3992,8 +4104,14 @@
       <c r="F176" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="177" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H176">
+        <v>2</v>
+      </c>
+      <c r="I176">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="177" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B177" s="3" t="s">
         <v>66</v>
       </c>
@@ -4009,8 +4127,14 @@
       <c r="F177" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="178" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H177">
+        <v>2</v>
+      </c>
+      <c r="I177">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="178" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B178" s="3" t="s">
         <v>66</v>
       </c>
@@ -4026,8 +4150,14 @@
       <c r="F178" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="179" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H178">
+        <v>2</v>
+      </c>
+      <c r="I178">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="179" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B179" s="3" t="s">
         <v>66</v>
       </c>
@@ -4043,8 +4173,14 @@
       <c r="F179" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="180" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H179">
+        <v>2</v>
+      </c>
+      <c r="I179">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="180" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B180" s="3" t="s">
         <v>66</v>
       </c>
@@ -4060,8 +4196,14 @@
       <c r="F180" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="181" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H180">
+        <v>2</v>
+      </c>
+      <c r="I180">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="181" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B181" s="3" t="s">
         <v>66</v>
       </c>
@@ -4077,8 +4219,14 @@
       <c r="F181" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="182" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H181">
+        <v>2</v>
+      </c>
+      <c r="I181">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="182" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B182" s="3" t="s">
         <v>66</v>
       </c>
@@ -4094,8 +4242,11 @@
       <c r="G182" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="183" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H182" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="183" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B183" s="3" t="s">
         <v>66</v>
       </c>
@@ -4111,8 +4262,11 @@
       <c r="G183" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="184" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H183" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="184" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B184" s="3" t="s">
         <v>66</v>
       </c>
@@ -4131,8 +4285,11 @@
       <c r="G184" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="185" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H184" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="185" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B185" s="3" t="s">
         <v>66</v>
       </c>
@@ -4151,8 +4308,11 @@
       <c r="G185" s="2" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="186" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H185" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="186" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B186" s="3" t="s">
         <v>66</v>
       </c>
@@ -4168,8 +4328,14 @@
       <c r="F186" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="187" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H186" s="2">
+        <v>2</v>
+      </c>
+      <c r="I186" s="2">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="187" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B187" s="3" t="s">
         <v>66</v>
       </c>
@@ -4188,8 +4354,11 @@
       <c r="G187" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="188" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H187" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="188" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B188" s="3" t="s">
         <v>66</v>
       </c>
@@ -4205,8 +4374,14 @@
       <c r="F188" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="189" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H188" s="2">
+        <v>2</v>
+      </c>
+      <c r="I188">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="189" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B189" s="3" t="s">
         <v>66</v>
       </c>
@@ -4222,8 +4397,14 @@
       <c r="F189" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="190" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H189" s="2">
+        <v>2</v>
+      </c>
+      <c r="I189">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="190" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B190" s="3" t="s">
         <v>66</v>
       </c>
@@ -4239,8 +4420,14 @@
       <c r="F190" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="191" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H190" s="2">
+        <v>2</v>
+      </c>
+      <c r="I190">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="191" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B191" s="3" t="s">
         <v>66</v>
       </c>
@@ -4256,8 +4443,14 @@
       <c r="F191" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="192" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H191" s="2">
+        <v>2</v>
+      </c>
+      <c r="I191">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="192" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B192" s="3" t="s">
         <v>66</v>
       </c>
@@ -4273,8 +4466,14 @@
       <c r="F192" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="193" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H192" s="2">
+        <v>2</v>
+      </c>
+      <c r="I192">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B193" s="3" t="s">
         <v>66</v>
       </c>
@@ -4290,8 +4489,14 @@
       <c r="F193" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="194" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H193" s="2">
+        <v>2</v>
+      </c>
+      <c r="I193">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="194" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B194" s="3" t="s">
         <v>66</v>
       </c>
@@ -4307,8 +4512,14 @@
       <c r="F194" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="195" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H194" s="2">
+        <v>2</v>
+      </c>
+      <c r="I194">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="195" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B195" s="3" t="s">
         <v>66</v>
       </c>
@@ -4324,8 +4535,14 @@
       <c r="F195" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="196" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H195" s="2">
+        <v>2</v>
+      </c>
+      <c r="I195">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="196" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B196" s="3" t="s">
         <v>66</v>
       </c>
@@ -4341,8 +4558,14 @@
       <c r="F196" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="197" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H196" s="2">
+        <v>2</v>
+      </c>
+      <c r="I196">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="197" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B197" s="3" t="s">
         <v>66</v>
       </c>
@@ -4358,8 +4581,14 @@
       <c r="F197" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="198" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H197" s="2">
+        <v>2</v>
+      </c>
+      <c r="I197">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="198" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B198" s="3" t="s">
         <v>66</v>
       </c>
@@ -4375,8 +4604,14 @@
       <c r="F198" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="199" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H198" s="2">
+        <v>2</v>
+      </c>
+      <c r="I198">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="199" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B199" s="3" t="s">
         <v>66</v>
       </c>
@@ -4392,8 +4627,14 @@
       <c r="F199" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="200" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H199" s="2">
+        <v>2</v>
+      </c>
+      <c r="I199">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="200" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B200" s="3" t="s">
         <v>66</v>
       </c>
@@ -4409,8 +4650,14 @@
       <c r="F200" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="201" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H200" s="2">
+        <v>2</v>
+      </c>
+      <c r="I200">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="201" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B201" s="3" t="s">
         <v>66</v>
       </c>
@@ -4426,8 +4673,14 @@
       <c r="F201" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="202" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H201" s="2">
+        <v>2</v>
+      </c>
+      <c r="I201">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="202" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B202" s="3" t="s">
         <v>66</v>
       </c>
@@ -4443,8 +4696,14 @@
       <c r="F202" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="203" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H202" s="2">
+        <v>2</v>
+      </c>
+      <c r="I202">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="203" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B203" s="3" t="s">
         <v>66</v>
       </c>
@@ -4460,8 +4719,14 @@
       <c r="F203" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="204" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H203" s="2">
+        <v>2</v>
+      </c>
+      <c r="I203">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="204" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B204" s="3" t="s">
         <v>66</v>
       </c>
@@ -4477,8 +4742,14 @@
       <c r="F204" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="205" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H204" s="2">
+        <v>2</v>
+      </c>
+      <c r="I204">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="205" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B205" s="3" t="s">
         <v>66</v>
       </c>
@@ -4494,8 +4765,14 @@
       <c r="F205" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="206" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H205" s="2">
+        <v>2</v>
+      </c>
+      <c r="I205">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="206" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B206" s="3" t="s">
         <v>66</v>
       </c>
@@ -4511,8 +4788,14 @@
       <c r="F206" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="207" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H206" s="2">
+        <v>2</v>
+      </c>
+      <c r="I206">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="207" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B207" s="3" t="s">
         <v>66</v>
       </c>
@@ -4528,8 +4811,14 @@
       <c r="F207" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="208" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H207" s="2">
+        <v>2</v>
+      </c>
+      <c r="I207">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="208" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B208" s="3" t="s">
         <v>66</v>
       </c>
@@ -4545,8 +4834,14 @@
       <c r="F208" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="209" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H208" s="2">
+        <v>2</v>
+      </c>
+      <c r="I208">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="209" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B209" s="3" t="s">
         <v>66</v>
       </c>
@@ -4562,8 +4857,14 @@
       <c r="F209" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="210" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H209" s="2">
+        <v>2</v>
+      </c>
+      <c r="I209">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="210" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B210" s="3" t="s">
         <v>66</v>
       </c>
@@ -4579,8 +4880,14 @@
       <c r="F210" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="211" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H210" s="2">
+        <v>2</v>
+      </c>
+      <c r="I210">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="211" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B211" s="3" t="s">
         <v>66</v>
       </c>
@@ -4596,8 +4903,14 @@
       <c r="F211" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="212" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H211" s="2">
+        <v>2</v>
+      </c>
+      <c r="I211">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="212" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B212" s="3" t="s">
         <v>66</v>
       </c>
@@ -4613,8 +4926,14 @@
       <c r="F212" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="213" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H212" s="2">
+        <v>2</v>
+      </c>
+      <c r="I212">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="213" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B213" s="3" t="s">
         <v>66</v>
       </c>
@@ -4630,8 +4949,14 @@
       <c r="F213" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="214" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H213" s="2">
+        <v>2</v>
+      </c>
+      <c r="I213">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="214" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B214" s="3" t="s">
         <v>66</v>
       </c>
@@ -4647,8 +4972,14 @@
       <c r="F214" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="215" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H214" s="2">
+        <v>2</v>
+      </c>
+      <c r="I214">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="215" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B215" s="3" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +4995,14 @@
       <c r="F215" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="216" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H215" s="2">
+        <v>2</v>
+      </c>
+      <c r="I215">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="216" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B216" s="3" t="s">
         <v>66</v>
       </c>
@@ -4681,8 +5018,14 @@
       <c r="F216" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="217" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H216" s="2">
+        <v>2</v>
+      </c>
+      <c r="I216">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="217" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B217" s="3" t="s">
         <v>66</v>
       </c>
@@ -4698,8 +5041,14 @@
       <c r="F217" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="218" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H217" s="2">
+        <v>2</v>
+      </c>
+      <c r="I217">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="218" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B218" s="3" t="s">
         <v>66</v>
       </c>
@@ -4715,8 +5064,14 @@
       <c r="F218" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="219" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H218" s="2">
+        <v>2</v>
+      </c>
+      <c r="I218">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="219" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B219" s="3" t="s">
         <v>66</v>
       </c>
@@ -4732,8 +5087,14 @@
       <c r="F219" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="220" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H219" s="2">
+        <v>2</v>
+      </c>
+      <c r="I219">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="220" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B220" s="3" t="s">
         <v>66</v>
       </c>
@@ -4749,8 +5110,14 @@
       <c r="F220" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="221" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H220" s="2">
+        <v>2</v>
+      </c>
+      <c r="I220">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="221" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B221" s="3" t="s">
         <v>66</v>
       </c>
@@ -4766,8 +5133,14 @@
       <c r="F221" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="222" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H221" s="2">
+        <v>2</v>
+      </c>
+      <c r="I221">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="222" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B222" s="3" t="s">
         <v>66</v>
       </c>
@@ -4783,8 +5156,14 @@
       <c r="F222" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="223" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H222" s="2">
+        <v>2</v>
+      </c>
+      <c r="I222">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="223" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B223" s="3" t="s">
         <v>66</v>
       </c>
@@ -4800,8 +5179,14 @@
       <c r="F223" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="224" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H223" s="2">
+        <v>2</v>
+      </c>
+      <c r="I223">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="224" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B224" s="3" t="s">
         <v>66</v>
       </c>
@@ -4817,8 +5202,14 @@
       <c r="F224" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="225" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H224" s="2">
+        <v>2</v>
+      </c>
+      <c r="I224">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B225" s="3" t="s">
         <v>66</v>
       </c>
@@ -4834,8 +5225,14 @@
       <c r="F225" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="226" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H225" s="2">
+        <v>2</v>
+      </c>
+      <c r="I225">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="226" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B226" s="3" t="s">
         <v>66</v>
       </c>
@@ -4851,8 +5248,14 @@
       <c r="F226" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="227" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H226" s="2">
+        <v>2</v>
+      </c>
+      <c r="I226">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="227" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B227" s="3" t="s">
         <v>66</v>
       </c>
@@ -4868,8 +5271,14 @@
       <c r="F227" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="228" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H227" s="2">
+        <v>2</v>
+      </c>
+      <c r="I227">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="228" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B228" s="3" t="s">
         <v>66</v>
       </c>
@@ -4885,8 +5294,14 @@
       <c r="F228" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="229" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H228" s="2">
+        <v>2</v>
+      </c>
+      <c r="I228">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="229" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B229" s="3" t="s">
         <v>66</v>
       </c>
@@ -4902,8 +5317,14 @@
       <c r="F229" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="230" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H229" s="2">
+        <v>2</v>
+      </c>
+      <c r="I229">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="230" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B230" s="3" t="s">
         <v>66</v>
       </c>
@@ -4919,8 +5340,14 @@
       <c r="F230" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="231" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H230" s="2">
+        <v>2</v>
+      </c>
+      <c r="I230">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="231" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B231" s="3" t="s">
         <v>66</v>
       </c>
@@ -4936,8 +5363,14 @@
       <c r="F231" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="232" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H231" s="2">
+        <v>2</v>
+      </c>
+      <c r="I231">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="232" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B232" s="3" t="s">
         <v>66</v>
       </c>
@@ -4953,8 +5386,14 @@
       <c r="F232" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="233" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H232" s="2">
+        <v>2</v>
+      </c>
+      <c r="I232">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="233" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B233" s="3" t="s">
         <v>66</v>
       </c>
@@ -4970,8 +5409,14 @@
       <c r="F233" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="234" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H233" s="2">
+        <v>2</v>
+      </c>
+      <c r="I233">
+        <v>2.04</v>
+      </c>
+    </row>
+    <row r="234" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B234" s="3" t="s">
         <v>66</v>
       </c>
@@ -4990,8 +5435,12 @@
       <c r="G234" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="235" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H234" s="2">
+        <v>4</v>
+      </c>
+      <c r="I234" s="2"/>
+    </row>
+    <row r="235" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B235" s="3" t="s">
         <v>66</v>
       </c>
@@ -5010,8 +5459,11 @@
       <c r="G235" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="236" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H235" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="236" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B236" s="3" t="s">
         <v>66</v>
       </c>
@@ -5030,8 +5482,11 @@
       <c r="G236" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="237" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H236" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="237" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B237" s="3" t="s">
         <v>66</v>
       </c>
@@ -5050,8 +5505,11 @@
       <c r="G237" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="238" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H237" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="238" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B238" s="3" t="s">
         <v>66</v>
       </c>
@@ -5070,8 +5528,11 @@
       <c r="G238" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="239" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H238" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="239" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B239" s="3" t="s">
         <v>66</v>
       </c>
@@ -5090,8 +5551,11 @@
       <c r="G239" s="2" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="240" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H239" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="240" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B240" s="3" t="s">
         <v>66</v>
       </c>
@@ -5109,6 +5573,9 @@
       </c>
       <c r="G240" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="H240" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="241" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
@@ -5130,6 +5597,9 @@
       <c r="G241" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="H241" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="242" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B242" s="3" t="s">
@@ -5150,6 +5620,9 @@
       <c r="G242" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="H242" s="2">
+        <v>4</v>
+      </c>
     </row>
     <row r="243" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B243" s="3" t="s">
@@ -5169,6 +5642,9 @@
       </c>
       <c r="G243" s="2" t="s">
         <v>45</v>
+      </c>
+      <c r="H243" s="2">
+        <v>4</v>
       </c>
     </row>
     <row r="244" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
@@ -5185,8 +5661,12 @@
       </c>
       <c r="F244" s="4"/>
       <c r="G244" s="4"/>
-      <c r="H244" s="4"/>
-      <c r="I244" s="4"/>
+      <c r="H244" s="4">
+        <v>2</v>
+      </c>
+      <c r="I244" s="4">
+        <v>2.04</v>
+      </c>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
@@ -5394,6 +5874,12 @@
       <c r="G255" s="2" t="s">
         <v>46</v>
       </c>
+      <c r="H255" s="2">
+        <v>2</v>
+      </c>
+      <c r="I255" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="256" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B256" s="2" t="s">
@@ -5411,8 +5897,14 @@
       <c r="F256" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="257" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H256" s="2">
+        <v>2</v>
+      </c>
+      <c r="I256" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B257" s="2" t="s">
         <v>70</v>
       </c>
@@ -5428,8 +5920,14 @@
       <c r="F257" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="258" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H257" s="2">
+        <v>2</v>
+      </c>
+      <c r="I257" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B258" s="2" t="s">
         <v>70</v>
       </c>
@@ -5445,8 +5943,14 @@
       <c r="F258" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="259" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H258" s="2">
+        <v>2</v>
+      </c>
+      <c r="I258" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B259" s="2" t="s">
         <v>70</v>
       </c>
@@ -5462,8 +5966,14 @@
       <c r="F259" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="260" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H259" s="2">
+        <v>2</v>
+      </c>
+      <c r="I259" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B260" s="2" t="s">
         <v>70</v>
       </c>
@@ -5479,8 +5989,14 @@
       <c r="F260" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="261" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H260" s="2">
+        <v>2</v>
+      </c>
+      <c r="I260" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B261" s="2" t="s">
         <v>70</v>
       </c>
@@ -5496,8 +6012,14 @@
       <c r="F261" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="262" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H261" s="2">
+        <v>2</v>
+      </c>
+      <c r="I261" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B262" s="2" t="s">
         <v>70</v>
       </c>
@@ -5513,8 +6035,14 @@
       <c r="F262" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="263" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H262" s="2">
+        <v>2</v>
+      </c>
+      <c r="I262" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B263" s="2" t="s">
         <v>70</v>
       </c>
@@ -5530,8 +6058,14 @@
       <c r="F263" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="264" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H263" s="2">
+        <v>2</v>
+      </c>
+      <c r="I263" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B264" s="2" t="s">
         <v>70</v>
       </c>
@@ -5547,8 +6081,14 @@
       <c r="F264" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="265" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H264" s="2">
+        <v>2</v>
+      </c>
+      <c r="I264" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B265" s="2" t="s">
         <v>70</v>
       </c>
@@ -5564,8 +6104,14 @@
       <c r="F265" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="266" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H265" s="2">
+        <v>2</v>
+      </c>
+      <c r="I265" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B266" s="2" t="s">
         <v>70</v>
       </c>
@@ -5581,8 +6127,14 @@
       <c r="F266" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="267" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H266" s="2">
+        <v>2</v>
+      </c>
+      <c r="I266" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B267" s="2" t="s">
         <v>70</v>
       </c>
@@ -5598,8 +6150,14 @@
       <c r="F267" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="268" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H267" s="2">
+        <v>2</v>
+      </c>
+      <c r="I267" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B268" s="2" t="s">
         <v>70</v>
       </c>
@@ -5615,8 +6173,14 @@
       <c r="F268" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="269" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H268" s="2">
+        <v>2</v>
+      </c>
+      <c r="I268" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B269" s="2" t="s">
         <v>70</v>
       </c>
@@ -5632,8 +6196,14 @@
       <c r="F269" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="270" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H269" s="2">
+        <v>2</v>
+      </c>
+      <c r="I269" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B270" s="2" t="s">
         <v>70</v>
       </c>
@@ -5649,8 +6219,14 @@
       <c r="F270" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="271" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H270" s="2">
+        <v>2</v>
+      </c>
+      <c r="I270" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B271" s="2" t="s">
         <v>70</v>
       </c>
@@ -5666,8 +6242,14 @@
       <c r="F271" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="272" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H271" s="2">
+        <v>2</v>
+      </c>
+      <c r="I271" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B272" s="2" t="s">
         <v>70</v>
       </c>
@@ -5683,8 +6265,14 @@
       <c r="F272" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="273" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H272" s="2">
+        <v>2</v>
+      </c>
+      <c r="I272" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B273" s="2" t="s">
         <v>70</v>
       </c>
@@ -5700,8 +6288,14 @@
       <c r="F273" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="274" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H273" s="2">
+        <v>2</v>
+      </c>
+      <c r="I273" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B274" s="2" t="s">
         <v>70</v>
       </c>
@@ -5717,8 +6311,14 @@
       <c r="F274" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="275" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H274" s="2">
+        <v>2</v>
+      </c>
+      <c r="I274" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B275" s="2" t="s">
         <v>70</v>
       </c>
@@ -5734,8 +6334,14 @@
       <c r="F275" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="276" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H275" s="2">
+        <v>2</v>
+      </c>
+      <c r="I275" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B276" s="2" t="s">
         <v>70</v>
       </c>
@@ -5751,8 +6357,14 @@
       <c r="F276" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="277" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H276" s="2">
+        <v>2</v>
+      </c>
+      <c r="I276" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B277" s="2" t="s">
         <v>70</v>
       </c>
@@ -5768,8 +6380,14 @@
       <c r="F277" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="278" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H277" s="2">
+        <v>2</v>
+      </c>
+      <c r="I277" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B278" s="2" t="s">
         <v>70</v>
       </c>
@@ -5785,8 +6403,14 @@
       <c r="F278" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="279" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H278" s="2">
+        <v>2</v>
+      </c>
+      <c r="I278" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B279" s="2" t="s">
         <v>70</v>
       </c>
@@ -5802,8 +6426,14 @@
       <c r="F279" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="280" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H279" s="2">
+        <v>2</v>
+      </c>
+      <c r="I279" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B280" s="2" t="s">
         <v>70</v>
       </c>
@@ -5819,8 +6449,14 @@
       <c r="F280" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="281" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H280" s="2">
+        <v>2</v>
+      </c>
+      <c r="I280" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B281" s="2" t="s">
         <v>70</v>
       </c>
@@ -5836,8 +6472,14 @@
       <c r="F281" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="282" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H281" s="2">
+        <v>2</v>
+      </c>
+      <c r="I281" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B282" s="2" t="s">
         <v>70</v>
       </c>
@@ -5853,8 +6495,14 @@
       <c r="F282" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="283" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H282" s="2">
+        <v>2</v>
+      </c>
+      <c r="I282" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B283" s="2" t="s">
         <v>70</v>
       </c>
@@ -5870,8 +6518,14 @@
       <c r="F283" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="284" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H283" s="2">
+        <v>2</v>
+      </c>
+      <c r="I283" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B284" s="2" t="s">
         <v>70</v>
       </c>
@@ -5887,8 +6541,14 @@
       <c r="F284" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="285" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H284" s="2">
+        <v>2</v>
+      </c>
+      <c r="I284" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B285" s="2" t="s">
         <v>70</v>
       </c>
@@ -5904,8 +6564,14 @@
       <c r="F285" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="286" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H285" s="2">
+        <v>2</v>
+      </c>
+      <c r="I285" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B286" s="2" t="s">
         <v>70</v>
       </c>
@@ -5921,8 +6587,14 @@
       <c r="F286" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="287" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H286" s="2">
+        <v>2</v>
+      </c>
+      <c r="I286" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B287" s="2" t="s">
         <v>70</v>
       </c>
@@ -5938,8 +6610,14 @@
       <c r="F287" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="288" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H287" s="2">
+        <v>2</v>
+      </c>
+      <c r="I287" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B288" s="2" t="s">
         <v>70</v>
       </c>
@@ -5955,8 +6633,14 @@
       <c r="F288" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="289" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H288" s="2">
+        <v>2</v>
+      </c>
+      <c r="I288" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B289" s="2" t="s">
         <v>70</v>
       </c>
@@ -5972,8 +6656,14 @@
       <c r="F289" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="290" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H289" s="2">
+        <v>2</v>
+      </c>
+      <c r="I289" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B290" s="2" t="s">
         <v>70</v>
       </c>
@@ -5989,8 +6679,14 @@
       <c r="F290" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="291" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H290" s="2">
+        <v>2</v>
+      </c>
+      <c r="I290" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B291" s="2" t="s">
         <v>70</v>
       </c>
@@ -6006,8 +6702,14 @@
       <c r="F291" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="292" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H291" s="2">
+        <v>2</v>
+      </c>
+      <c r="I291" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B292" s="2" t="s">
         <v>70</v>
       </c>
@@ -6023,8 +6725,14 @@
       <c r="F292" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="293" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H292" s="2">
+        <v>2</v>
+      </c>
+      <c r="I292" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B293" s="2" t="s">
         <v>70</v>
       </c>
@@ -6040,8 +6748,14 @@
       <c r="F293" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="294" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H293" s="2">
+        <v>2</v>
+      </c>
+      <c r="I293" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B294" s="2" t="s">
         <v>70</v>
       </c>
@@ -6057,8 +6771,14 @@
       <c r="F294" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="295" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H294" s="2">
+        <v>2</v>
+      </c>
+      <c r="I294" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B295" s="2" t="s">
         <v>70</v>
       </c>
@@ -6074,8 +6794,14 @@
       <c r="F295" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="296" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H295" s="2">
+        <v>2</v>
+      </c>
+      <c r="I295" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B296" s="2" t="s">
         <v>70</v>
       </c>
@@ -6091,8 +6817,14 @@
       <c r="F296" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="297" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H296" s="2">
+        <v>2</v>
+      </c>
+      <c r="I296" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B297" s="2" t="s">
         <v>70</v>
       </c>
@@ -6108,8 +6840,14 @@
       <c r="F297" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="298" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H297" s="2">
+        <v>2</v>
+      </c>
+      <c r="I297" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B298" s="2" t="s">
         <v>70</v>
       </c>
@@ -6125,8 +6863,14 @@
       <c r="F298" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="299" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H298" s="2">
+        <v>2</v>
+      </c>
+      <c r="I298" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B299" s="2" t="s">
         <v>70</v>
       </c>
@@ -6142,8 +6886,14 @@
       <c r="F299" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="300" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H299" s="2">
+        <v>2</v>
+      </c>
+      <c r="I299" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B300" s="2" t="s">
         <v>70</v>
       </c>
@@ -6159,8 +6909,14 @@
       <c r="F300" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="301" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H300" s="2">
+        <v>2</v>
+      </c>
+      <c r="I300" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B301" s="2" t="s">
         <v>70</v>
       </c>
@@ -6176,8 +6932,14 @@
       <c r="F301" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="302" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H301" s="2">
+        <v>2</v>
+      </c>
+      <c r="I301" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B302" s="2" t="s">
         <v>70</v>
       </c>
@@ -6193,8 +6955,14 @@
       <c r="F302" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="303" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H302" s="2">
+        <v>2</v>
+      </c>
+      <c r="I302" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B303" s="2" t="s">
         <v>70</v>
       </c>
@@ -6210,8 +6978,14 @@
       <c r="F303" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="304" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H303" s="2">
+        <v>2</v>
+      </c>
+      <c r="I303" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B304" s="2" t="s">
         <v>70</v>
       </c>
@@ -6227,8 +7001,14 @@
       <c r="F304" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="305" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H304" s="2">
+        <v>2</v>
+      </c>
+      <c r="I304" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B305" s="2" t="s">
         <v>70</v>
       </c>
@@ -6244,8 +7024,14 @@
       <c r="F305" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="306" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H305" s="2">
+        <v>2</v>
+      </c>
+      <c r="I305" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B306" s="2" t="s">
         <v>70</v>
       </c>
@@ -6261,8 +7047,14 @@
       <c r="F306" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="307" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H306" s="2">
+        <v>2</v>
+      </c>
+      <c r="I306" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B307" s="2" t="s">
         <v>70</v>
       </c>
@@ -6278,8 +7070,14 @@
       <c r="F307" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="308" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H307" s="2">
+        <v>2</v>
+      </c>
+      <c r="I307" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B308" s="2" t="s">
         <v>70</v>
       </c>
@@ -6295,8 +7093,14 @@
       <c r="F308" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H308" s="2">
+        <v>2</v>
+      </c>
+      <c r="I308" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B309" s="2" t="s">
         <v>70</v>
       </c>
@@ -6312,8 +7116,14 @@
       <c r="F309" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="310" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H309" s="2">
+        <v>2</v>
+      </c>
+      <c r="I309" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B310" s="2" t="s">
         <v>70</v>
       </c>
@@ -6329,8 +7139,14 @@
       <c r="F310" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="311" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H310" s="2">
+        <v>2</v>
+      </c>
+      <c r="I310" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B311" s="2" t="s">
         <v>70</v>
       </c>
@@ -6346,8 +7162,14 @@
       <c r="F311" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="312" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H311" s="2">
+        <v>2</v>
+      </c>
+      <c r="I311" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B312" s="2" t="s">
         <v>70</v>
       </c>
@@ -6363,8 +7185,14 @@
       <c r="F312" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="313" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H312" s="2">
+        <v>2</v>
+      </c>
+      <c r="I312" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B313" s="2" t="s">
         <v>70</v>
       </c>
@@ -6380,8 +7208,14 @@
       <c r="F313" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="314" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H313" s="2">
+        <v>2</v>
+      </c>
+      <c r="I313" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B314" s="2" t="s">
         <v>70</v>
       </c>
@@ -6397,8 +7231,14 @@
       <c r="F314" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="315" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H314" s="2">
+        <v>2</v>
+      </c>
+      <c r="I314" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B315" s="2" t="s">
         <v>70</v>
       </c>
@@ -6414,8 +7254,14 @@
       <c r="F315" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="316" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H315" s="2">
+        <v>2</v>
+      </c>
+      <c r="I315" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B316" s="2" t="s">
         <v>70</v>
       </c>
@@ -6431,8 +7277,14 @@
       <c r="F316" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="317" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H316" s="2">
+        <v>2</v>
+      </c>
+      <c r="I316" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B317" s="2" t="s">
         <v>70</v>
       </c>
@@ -6448,8 +7300,14 @@
       <c r="F317" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="318" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H317" s="2">
+        <v>2</v>
+      </c>
+      <c r="I317" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B318" s="2" t="s">
         <v>70</v>
       </c>
@@ -6465,8 +7323,14 @@
       <c r="F318" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="319" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H318" s="2">
+        <v>2</v>
+      </c>
+      <c r="I318" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B319" s="2" t="s">
         <v>70</v>
       </c>
@@ -6482,8 +7346,14 @@
       <c r="F319" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="320" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H319" s="2">
+        <v>2</v>
+      </c>
+      <c r="I319" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B320" s="2" t="s">
         <v>70</v>
       </c>
@@ -6499,8 +7369,14 @@
       <c r="F320" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="321" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H320" s="2">
+        <v>2</v>
+      </c>
+      <c r="I320" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B321" s="2" t="s">
         <v>70</v>
       </c>
@@ -6516,8 +7392,14 @@
       <c r="F321" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="322" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H321" s="2">
+        <v>2</v>
+      </c>
+      <c r="I321" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B322" s="2" t="s">
         <v>70</v>
       </c>
@@ -6533,8 +7415,14 @@
       <c r="F322" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="323" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H322" s="2">
+        <v>2</v>
+      </c>
+      <c r="I322" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B323" s="2" t="s">
         <v>70</v>
       </c>
@@ -6550,8 +7438,14 @@
       <c r="F323" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="324" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H323" s="2">
+        <v>2</v>
+      </c>
+      <c r="I323" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B324" s="2" t="s">
         <v>70</v>
       </c>
@@ -6567,8 +7461,14 @@
       <c r="F324" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="325" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H324" s="2">
+        <v>2</v>
+      </c>
+      <c r="I324" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B325" s="2" t="s">
         <v>70</v>
       </c>
@@ -6584,8 +7484,14 @@
       <c r="F325" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="326" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H325" s="2">
+        <v>2</v>
+      </c>
+      <c r="I325" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B326" s="2" t="s">
         <v>70</v>
       </c>
@@ -6601,8 +7507,14 @@
       <c r="F326" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="327" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H326" s="2">
+        <v>2</v>
+      </c>
+      <c r="I326" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B327" s="2" t="s">
         <v>70</v>
       </c>
@@ -6618,8 +7530,14 @@
       <c r="F327" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="328" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H327" s="2">
+        <v>2</v>
+      </c>
+      <c r="I327" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B328" s="2" t="s">
         <v>70</v>
       </c>
@@ -6635,8 +7553,14 @@
       <c r="F328" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="329" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H328" s="2">
+        <v>2</v>
+      </c>
+      <c r="I328" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B329" s="2" t="s">
         <v>70</v>
       </c>
@@ -6652,8 +7576,14 @@
       <c r="F329" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="330" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H329" s="2">
+        <v>2</v>
+      </c>
+      <c r="I329" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B330" s="2" t="s">
         <v>70</v>
       </c>
@@ -6669,8 +7599,14 @@
       <c r="F330" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="331" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H330" s="2">
+        <v>2</v>
+      </c>
+      <c r="I330" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B331" s="2" t="s">
         <v>70</v>
       </c>
@@ -6686,8 +7622,14 @@
       <c r="F331" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="332" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H331" s="2">
+        <v>2</v>
+      </c>
+      <c r="I331" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B332" s="2" t="s">
         <v>70</v>
       </c>
@@ -6703,8 +7645,14 @@
       <c r="F332" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="333" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H332" s="2">
+        <v>2</v>
+      </c>
+      <c r="I332" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B333" s="2" t="s">
         <v>70</v>
       </c>
@@ -6720,8 +7668,14 @@
       <c r="F333" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="334" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H333" s="2">
+        <v>2</v>
+      </c>
+      <c r="I333" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B334" s="2" t="s">
         <v>70</v>
       </c>
@@ -6737,8 +7691,14 @@
       <c r="F334" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="335" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H334" s="2">
+        <v>2</v>
+      </c>
+      <c r="I334" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B335" s="2" t="s">
         <v>70</v>
       </c>
@@ -6754,8 +7714,14 @@
       <c r="F335" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="336" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H335" s="2">
+        <v>2</v>
+      </c>
+      <c r="I335" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B336" s="2" t="s">
         <v>70</v>
       </c>
@@ -6771,8 +7737,14 @@
       <c r="F336" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="337" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H336" s="2">
+        <v>2</v>
+      </c>
+      <c r="I336" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B337" s="2" t="s">
         <v>70</v>
       </c>
@@ -6788,8 +7760,14 @@
       <c r="F337" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="338" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H337" s="2">
+        <v>2</v>
+      </c>
+      <c r="I337" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B338" s="2" t="s">
         <v>70</v>
       </c>
@@ -6805,8 +7783,14 @@
       <c r="F338" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="339" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H338" s="2">
+        <v>2</v>
+      </c>
+      <c r="I338" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B339" s="2" t="s">
         <v>70</v>
       </c>
@@ -6822,8 +7806,14 @@
       <c r="F339" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="340" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H339" s="2">
+        <v>2</v>
+      </c>
+      <c r="I339" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B340" s="2" t="s">
         <v>70</v>
       </c>
@@ -6839,8 +7829,14 @@
       <c r="F340" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="341" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H340" s="2">
+        <v>2</v>
+      </c>
+      <c r="I340" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B341" s="2" t="s">
         <v>70</v>
       </c>
@@ -6856,8 +7852,14 @@
       <c r="F341" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="342" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H341" s="2">
+        <v>2</v>
+      </c>
+      <c r="I341" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B342" s="2" t="s">
         <v>70</v>
       </c>
@@ -6873,8 +7875,14 @@
       <c r="F342" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="343" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H342" s="2">
+        <v>2</v>
+      </c>
+      <c r="I342" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B343" s="2" t="s">
         <v>70</v>
       </c>
@@ -6890,8 +7898,14 @@
       <c r="F343" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="344" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H343" s="2">
+        <v>2</v>
+      </c>
+      <c r="I343" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B344" s="2" t="s">
         <v>70</v>
       </c>
@@ -6907,8 +7921,14 @@
       <c r="F344" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="345" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H344" s="2">
+        <v>2</v>
+      </c>
+      <c r="I344" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B345" s="2" t="s">
         <v>70</v>
       </c>
@@ -6924,8 +7944,14 @@
       <c r="F345" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="346" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H345" s="2">
+        <v>2</v>
+      </c>
+      <c r="I345" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B346" s="2" t="s">
         <v>70</v>
       </c>
@@ -6941,8 +7967,14 @@
       <c r="F346" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="347" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H346" s="2">
+        <v>2</v>
+      </c>
+      <c r="I346" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B347" s="2" t="s">
         <v>70</v>
       </c>
@@ -6958,8 +7990,14 @@
       <c r="F347" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="348" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H347" s="2">
+        <v>2</v>
+      </c>
+      <c r="I347" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B348" s="2" t="s">
         <v>70</v>
       </c>
@@ -6975,8 +8013,14 @@
       <c r="F348" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="349" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H348" s="2">
+        <v>2</v>
+      </c>
+      <c r="I348" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B349" s="2" t="s">
         <v>70</v>
       </c>
@@ -6992,8 +8036,14 @@
       <c r="F349" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="350" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H349" s="2">
+        <v>2</v>
+      </c>
+      <c r="I349" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B350" s="2" t="s">
         <v>70</v>
       </c>
@@ -7009,8 +8059,14 @@
       <c r="F350" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="351" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H350" s="2">
+        <v>2</v>
+      </c>
+      <c r="I350" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B351" s="2" t="s">
         <v>70</v>
       </c>
@@ -7026,8 +8082,14 @@
       <c r="F351" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="352" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H351" s="2">
+        <v>2</v>
+      </c>
+      <c r="I351" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B352" s="2" t="s">
         <v>70</v>
       </c>
@@ -7042,6 +8104,12 @@
       </c>
       <c r="F352" s="2">
         <v>1</v>
+      </c>
+      <c r="H352" s="2">
+        <v>2</v>
+      </c>
+      <c r="I352" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="353" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
@@ -7062,8 +8130,12 @@
         <v>1</v>
       </c>
       <c r="G353" s="4"/>
-      <c r="H353" s="4"/>
-      <c r="I353" s="4"/>
+      <c r="H353" s="2">
+        <v>2</v>
+      </c>
+      <c r="I353" s="2">
+        <v>3</v>
+      </c>
       <c r="J353" s="4"/>
       <c r="K353" s="4"/>
       <c r="L353" s="4"/>
@@ -7206,6 +8278,9 @@
       <c r="G360" s="2" t="s">
         <v>48</v>
       </c>
+      <c r="H360" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="361" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B361" s="2" t="s">
@@ -7226,6 +8301,9 @@
       <c r="G361" s="2" t="s">
         <v>49</v>
       </c>
+      <c r="H361" s="2">
+        <v>8</v>
+      </c>
     </row>
     <row r="362" spans="1:29" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B362" s="2" t="s">
@@ -7346,7 +8424,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="369" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="369" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B369" s="2" t="s">
         <v>47</v>
       </c>
@@ -7363,7 +8441,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="370" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="370" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B370" s="2" t="s">
         <v>47</v>
       </c>
@@ -7380,7 +8458,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="371" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="371" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B371" s="2" t="s">
         <v>47</v>
       </c>
@@ -7397,7 +8475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="372" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="372" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B372" s="2" t="s">
         <v>47</v>
       </c>
@@ -7414,7 +8492,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="373" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="373" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B373" s="2" t="s">
         <v>47</v>
       </c>
@@ -7431,7 +8509,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="374" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="374" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B374" s="2" t="s">
         <v>47</v>
       </c>
@@ -7448,7 +8526,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="375" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="375" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B375" s="2" t="s">
         <v>47</v>
       </c>
@@ -7465,7 +8543,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="376" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="376" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B376" s="2" t="s">
         <v>47</v>
       </c>
@@ -7482,7 +8560,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="377" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="377" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B377" s="2" t="s">
         <v>47</v>
       </c>
@@ -7501,8 +8579,11 @@
       <c r="G377" s="2" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="378" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H377" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="378" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B378" s="2" t="s">
         <v>47</v>
       </c>
@@ -7519,7 +8600,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="379" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="379" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B379" s="2" t="s">
         <v>47</v>
       </c>
@@ -7536,7 +8617,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="380" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="380" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B380" s="2" t="s">
         <v>47</v>
       </c>
@@ -7553,7 +8634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="381" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="381" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B381" s="2" t="s">
         <v>47</v>
       </c>
@@ -7570,7 +8651,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="382" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="382" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B382" s="2" t="s">
         <v>47</v>
       </c>
@@ -7587,7 +8668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="383" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="383" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B383" s="2" t="s">
         <v>47</v>
       </c>
@@ -7606,8 +8687,11 @@
       <c r="G383" s="2" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="384" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H383" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="384" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B384" s="2" t="s">
         <v>47</v>
       </c>
@@ -7624,7 +8708,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="385" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="385" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B385" s="2" t="s">
         <v>47</v>
       </c>
@@ -7641,7 +8725,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="386" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="386" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B386" s="2" t="s">
         <v>47</v>
       </c>
@@ -7658,7 +8742,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="387" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="387" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B387" s="2" t="s">
         <v>47</v>
       </c>
@@ -7675,7 +8759,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="388" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="388" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B388" s="2" t="s">
         <v>47</v>
       </c>
@@ -7692,7 +8776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="389" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="389" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B389" s="2" t="s">
         <v>47</v>
       </c>
@@ -7711,8 +8795,11 @@
       <c r="G389" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="390" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H389" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="390" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B390" s="2" t="s">
         <v>47</v>
       </c>
@@ -7729,7 +8816,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="391" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="391" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B391" s="2" t="s">
         <v>47</v>
       </c>
@@ -7746,7 +8833,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="392" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="392" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B392" s="2" t="s">
         <v>47</v>
       </c>
@@ -7763,7 +8850,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="393" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="393" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B393" s="2" t="s">
         <v>47</v>
       </c>
@@ -7780,7 +8867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="394" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="394" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B394" s="2" t="s">
         <v>47</v>
       </c>
@@ -7797,7 +8884,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="395" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="395" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B395" s="2" t="s">
         <v>47</v>
       </c>
@@ -7814,7 +8901,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="396" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="396" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B396" s="2" t="s">
         <v>47</v>
       </c>
@@ -7831,7 +8918,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="397" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="397" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B397" s="2" t="s">
         <v>47</v>
       </c>
@@ -7848,7 +8935,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="398" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="398" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B398" s="2" t="s">
         <v>47</v>
       </c>
@@ -7865,7 +8952,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="399" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="399" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B399" s="2" t="s">
         <v>47</v>
       </c>
@@ -7884,8 +8971,11 @@
       <c r="G399" s="2" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="400" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H399" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="400" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B400" s="2" t="s">
         <v>47</v>
       </c>
@@ -8432,7 +9522,7 @@
       <c r="AB448" s="4"/>
       <c r="AC448" s="4"/>
     </row>
-    <row r="449" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="449" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B449" s="2" t="s">
         <v>55</v>
       </c>
@@ -8448,8 +9538,11 @@
       <c r="F449" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="450" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H449" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="450" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B450" s="2" t="s">
         <v>55</v>
       </c>
@@ -8465,8 +9558,11 @@
       <c r="F450" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="451" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H450" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="451" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B451" s="2" t="s">
         <v>55</v>
       </c>
@@ -8482,8 +9578,11 @@
       <c r="F451" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="452" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H451" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="452" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B452" s="2" t="s">
         <v>55</v>
       </c>
@@ -8499,8 +9598,11 @@
       <c r="F452" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="453" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H452" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="453" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B453" s="2" t="s">
         <v>55</v>
       </c>
@@ -8516,8 +9618,11 @@
       <c r="F453" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="454" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H453" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="454" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B454" s="2" t="s">
         <v>55</v>
       </c>
@@ -8533,8 +9638,11 @@
       <c r="F454" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="455" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H454" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="455" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B455" s="2" t="s">
         <v>55</v>
       </c>
@@ -8550,8 +9658,11 @@
       <c r="F455" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="456" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H455" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="456" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B456" s="2" t="s">
         <v>55</v>
       </c>
@@ -8567,8 +9678,11 @@
       <c r="F456" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="457" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H456" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="457" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B457" s="2" t="s">
         <v>55</v>
       </c>
@@ -8584,8 +9698,11 @@
       <c r="F457" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="458" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H457" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="458" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B458" s="2" t="s">
         <v>55</v>
       </c>
@@ -8601,8 +9718,11 @@
       <c r="F458" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="459" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H458" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="459" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B459" s="2" t="s">
         <v>55</v>
       </c>
@@ -8618,8 +9738,11 @@
       <c r="F459" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="460" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H459" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="460" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B460" s="2" t="s">
         <v>55</v>
       </c>
@@ -8635,8 +9758,11 @@
       <c r="F460" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="461" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H460" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="461" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B461" s="2" t="s">
         <v>55</v>
       </c>
@@ -8652,8 +9778,11 @@
       <c r="F461" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="462" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H461" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="462" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B462" s="2" t="s">
         <v>55</v>
       </c>
@@ -8669,8 +9798,11 @@
       <c r="F462" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="463" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H462" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="463" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B463" s="2" t="s">
         <v>55</v>
       </c>
@@ -8686,8 +9818,11 @@
       <c r="F463" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="464" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H463" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="464" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B464" s="2" t="s">
         <v>55</v>
       </c>
@@ -8703,8 +9838,11 @@
       <c r="F464" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="465" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H464" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="465" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B465" s="2" t="s">
         <v>55</v>
       </c>
@@ -8720,8 +9858,11 @@
       <c r="F465" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="466" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H465" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="466" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B466" s="2" t="s">
         <v>55</v>
       </c>
@@ -8737,8 +9878,11 @@
       <c r="F466" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="467" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H466" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="467" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B467" s="2" t="s">
         <v>55</v>
       </c>
@@ -8754,8 +9898,11 @@
       <c r="F467" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="468" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H467" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="468" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B468" s="2" t="s">
         <v>55</v>
       </c>
@@ -8771,8 +9918,11 @@
       <c r="F468" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="469" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H468" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="469" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B469" s="2" t="s">
         <v>55</v>
       </c>
@@ -8788,8 +9938,11 @@
       <c r="F469" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="470" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H469" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="470" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B470" s="2" t="s">
         <v>55</v>
       </c>
@@ -8805,8 +9958,11 @@
       <c r="F470" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="471" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H470" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="471" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B471" s="2" t="s">
         <v>55</v>
       </c>
@@ -8822,8 +9978,11 @@
       <c r="F471" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="472" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H471" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="472" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B472" s="2" t="s">
         <v>55</v>
       </c>
@@ -8839,8 +9998,11 @@
       <c r="F472" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="473" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H472" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="473" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B473" s="2" t="s">
         <v>55</v>
       </c>
@@ -8856,8 +10018,11 @@
       <c r="F473" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="474" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H473" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="474" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B474" s="2" t="s">
         <v>55</v>
       </c>
@@ -8873,8 +10038,11 @@
       <c r="F474" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="475" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H474" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="475" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B475" s="2" t="s">
         <v>55</v>
       </c>
@@ -8890,8 +10058,11 @@
       <c r="F475" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="476" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H475" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="476" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B476" s="2" t="s">
         <v>55</v>
       </c>
@@ -8907,8 +10078,11 @@
       <c r="F476" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="477" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H476" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="477" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B477" s="2" t="s">
         <v>55</v>
       </c>
@@ -8924,8 +10098,11 @@
       <c r="F477" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="478" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H477" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="478" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B478" s="2" t="s">
         <v>55</v>
       </c>
@@ -8941,8 +10118,11 @@
       <c r="F478" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="479" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H478" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="479" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B479" s="2" t="s">
         <v>55</v>
       </c>
@@ -8958,8 +10138,11 @@
       <c r="F479" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="480" spans="2:6" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H479" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="480" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B480" s="2" t="s">
         <v>55</v>
       </c>
@@ -8975,8 +10158,11 @@
       <c r="F480" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="481" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H480" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="481" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B481" s="2" t="s">
         <v>55</v>
       </c>
@@ -8995,8 +10181,11 @@
       <c r="G481" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="482" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H481" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="482" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B482" s="2" t="s">
         <v>55</v>
       </c>
@@ -9015,8 +10204,11 @@
       <c r="G482" s="2" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="483" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H482" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="483" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B483" s="2" t="s">
         <v>55</v>
       </c>
@@ -9032,8 +10224,11 @@
       <c r="F483" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="484" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H483" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="484" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B484" s="2" t="s">
         <v>55</v>
       </c>
@@ -9049,8 +10244,11 @@
       <c r="F484" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="485" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H484" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="485" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B485" s="2" t="s">
         <v>55</v>
       </c>
@@ -9066,8 +10264,11 @@
       <c r="F485" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="486" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H485" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="486" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B486" s="2" t="s">
         <v>55</v>
       </c>
@@ -9083,8 +10284,11 @@
       <c r="F486" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="487" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H486" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="487" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B487" s="2" t="s">
         <v>55</v>
       </c>
@@ -9100,8 +10304,11 @@
       <c r="F487" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="488" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H487" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="488" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B488" s="2" t="s">
         <v>55</v>
       </c>
@@ -9117,8 +10324,11 @@
       <c r="F488" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="489" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H488" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="489" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B489" s="2" t="s">
         <v>55</v>
       </c>
@@ -9134,8 +10344,11 @@
       <c r="F489" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="490" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H489" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="490" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B490" s="2" t="s">
         <v>55</v>
       </c>
@@ -9151,8 +10364,11 @@
       <c r="F490" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="491" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H490" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="491" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B491" s="2" t="s">
         <v>55</v>
       </c>
@@ -9168,8 +10384,11 @@
       <c r="F491" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="492" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H491" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="492" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B492" s="2" t="s">
         <v>55</v>
       </c>
@@ -9185,8 +10404,11 @@
       <c r="F492" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="493" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H492" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="493" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B493" s="2" t="s">
         <v>55</v>
       </c>
@@ -9202,8 +10424,11 @@
       <c r="F493" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="494" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H493" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="494" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B494" s="2" t="s">
         <v>55</v>
       </c>
@@ -9219,8 +10444,11 @@
       <c r="F494" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="495" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H494" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="495" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B495" s="2" t="s">
         <v>55</v>
       </c>
@@ -9236,8 +10464,11 @@
       <c r="F495" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="496" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H495" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="496" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B496" s="2" t="s">
         <v>55</v>
       </c>
@@ -9252,6 +10483,9 @@
       </c>
       <c r="F496" s="2">
         <v>1</v>
+      </c>
+      <c r="H496" s="2">
+        <v>3</v>
       </c>
     </row>
     <row r="497" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
@@ -9270,6 +10504,9 @@
       <c r="F497" s="2">
         <v>1</v>
       </c>
+      <c r="H497" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="498" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B498" s="2" t="s">
@@ -9287,6 +10524,9 @@
       <c r="F498" s="2">
         <v>1</v>
       </c>
+      <c r="H498" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="499" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B499" s="2" t="s">
@@ -9307,6 +10547,9 @@
       <c r="G499" s="2" t="s">
         <v>57</v>
       </c>
+      <c r="H499" s="2">
+        <v>3</v>
+      </c>
     </row>
     <row r="500" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B500" s="2" t="s">
@@ -9380,6 +10623,9 @@
       <c r="G503" s="2" t="s">
         <v>58</v>
       </c>
+      <c r="H503" s="2">
+        <v>8</v>
+      </c>
       <c r="I503" s="3"/>
     </row>
     <row r="504" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
@@ -9400,6 +10646,9 @@
       </c>
       <c r="G504" s="2" t="s">
         <v>58</v>
+      </c>
+      <c r="H504" s="2">
+        <v>8</v>
       </c>
       <c r="I504" s="3"/>
     </row>
@@ -12227,7 +13476,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="705" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="705" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B705" s="2" t="s">
         <v>68</v>
       </c>
@@ -12241,7 +13490,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="706" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="706" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B706" s="2" t="s">
         <v>68</v>
       </c>
@@ -12251,8 +13500,11 @@
       <c r="G706" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="707" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H706">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="707" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B707" s="2" t="s">
         <v>68</v>
       </c>
@@ -12266,7 +13518,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="708" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="708" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B708" s="2" t="s">
         <v>68</v>
       </c>
@@ -12280,7 +13532,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="709" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="709" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B709" s="2" t="s">
         <v>68</v>
       </c>
@@ -12294,7 +13546,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="710" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="710" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B710" s="2" t="s">
         <v>68</v>
       </c>
@@ -12308,7 +13560,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="711" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="711" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B711" s="2" t="s">
         <v>68</v>
       </c>
@@ -12322,7 +13574,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="712" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="712" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B712" s="2" t="s">
         <v>68</v>
       </c>
@@ -12336,7 +13588,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="713" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="713" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B713" s="2" t="s">
         <v>68</v>
       </c>
@@ -12350,7 +13602,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="714" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="714" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B714" s="2" t="s">
         <v>68</v>
       </c>
@@ -12364,7 +13616,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="715" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="715" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B715" s="2" t="s">
         <v>68</v>
       </c>
@@ -12378,7 +13630,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="716" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="716" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B716" s="2" t="s">
         <v>68</v>
       </c>
@@ -12392,7 +13644,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="717" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="717" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B717" s="2" t="s">
         <v>68</v>
       </c>
@@ -12406,7 +13658,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="718" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="718" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B718" s="2" t="s">
         <v>68</v>
       </c>
@@ -12420,7 +13672,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="719" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="719" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B719" s="2" t="s">
         <v>68</v>
       </c>
@@ -12434,7 +13686,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="720" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="720" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B720" s="2" t="s">
         <v>68</v>
       </c>
@@ -12672,7 +13924,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="737" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="737" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B737" s="2" t="s">
         <v>68</v>
       </c>
@@ -12686,7 +13938,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="738" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="738" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B738" s="2" t="s">
         <v>68</v>
       </c>
@@ -12700,7 +13952,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="739" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="739" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B739" s="2" t="s">
         <v>68</v>
       </c>
@@ -12714,7 +13966,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="740" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="740" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B740" s="2" t="s">
         <v>68</v>
       </c>
@@ -12728,7 +13980,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="741" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="741" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B741" s="2" t="s">
         <v>68</v>
       </c>
@@ -12742,7 +13994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="742" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="742" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B742" s="2" t="s">
         <v>68</v>
       </c>
@@ -12756,7 +14008,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="743" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="743" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B743" s="2" t="s">
         <v>68</v>
       </c>
@@ -12770,7 +14022,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="744" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="744" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B744" s="2" t="s">
         <v>68</v>
       </c>
@@ -12784,7 +14036,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="745" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="745" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B745" s="2" t="s">
         <v>68</v>
       </c>
@@ -12798,7 +14050,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="746" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="746" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B746" s="2" t="s">
         <v>68</v>
       </c>
@@ -12812,7 +14064,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="747" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="747" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B747" s="2" t="s">
         <v>68</v>
       </c>
@@ -12828,8 +14080,11 @@
       <c r="G747" s="2" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="748" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H747">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="748" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B748" s="2" t="s">
         <v>68</v>
       </c>
@@ -12843,7 +14098,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="749" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="749" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B749" s="2" t="s">
         <v>68</v>
       </c>
@@ -12857,7 +14112,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="750" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="750" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B750" s="2" t="s">
         <v>68</v>
       </c>
@@ -12871,7 +14126,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="751" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="751" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B751" s="2" t="s">
         <v>68</v>
       </c>
@@ -12885,7 +14140,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="752" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="752" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B752" s="2" t="s">
         <v>68</v>
       </c>
@@ -14015,7 +15270,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="833" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="833" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B833" s="2" t="s">
         <v>72</v>
       </c>
@@ -14029,7 +15284,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="834" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="834" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B834" s="2" t="s">
         <v>72</v>
       </c>
@@ -14043,7 +15298,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="835" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="835" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B835" s="2" t="s">
         <v>72</v>
       </c>
@@ -14057,7 +15312,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="836" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="836" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B836" s="2" t="s">
         <v>72</v>
       </c>
@@ -14071,7 +15326,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="837" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="837" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B837" s="2" t="s">
         <v>72</v>
       </c>
@@ -14085,7 +15340,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="838" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="838" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B838" s="2" t="s">
         <v>72</v>
       </c>
@@ -14099,7 +15354,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="839" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="839" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B839" s="2" t="s">
         <v>72</v>
       </c>
@@ -14113,7 +15368,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="840" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="840" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B840" s="2" t="s">
         <v>72</v>
       </c>
@@ -14127,7 +15382,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="841" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="841" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B841" s="2" t="s">
         <v>72</v>
       </c>
@@ -14141,7 +15396,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="842" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="842" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B842" s="2" t="s">
         <v>72</v>
       </c>
@@ -14155,7 +15410,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="843" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="843" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B843" s="2" t="s">
         <v>72</v>
       </c>
@@ -14169,7 +15424,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="844" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="844" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B844" s="2" t="s">
         <v>72</v>
       </c>
@@ -14183,7 +15438,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="845" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="845" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B845" s="2" t="s">
         <v>72</v>
       </c>
@@ -14197,7 +15452,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="846" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="846" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B846" s="2" t="s">
         <v>72</v>
       </c>
@@ -14211,7 +15466,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="847" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="847" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B847" s="2" t="s">
         <v>72</v>
       </c>
@@ -14221,8 +15476,11 @@
       <c r="G847" s="2" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="848" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H847">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="848" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B848" s="2" t="s">
         <v>72</v>
       </c>
@@ -14684,7 +15942,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="881" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="881" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B881" s="2" t="s">
         <v>72</v>
       </c>
@@ -14698,7 +15956,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="882" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="882" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B882" s="2" t="s">
         <v>72</v>
       </c>
@@ -14712,7 +15970,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="883" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="883" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B883" s="2" t="s">
         <v>72</v>
       </c>
@@ -14726,7 +15984,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="884" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="884" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B884" s="2" t="s">
         <v>72</v>
       </c>
@@ -14740,7 +15998,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="885" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="885" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B885" s="2" t="s">
         <v>72</v>
       </c>
@@ -14754,7 +16012,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="886" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="886" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B886" s="2" t="s">
         <v>72</v>
       </c>
@@ -14768,7 +16026,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="887" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="887" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B887" s="2" t="s">
         <v>72</v>
       </c>
@@ -14782,7 +16040,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="888" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="888" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B888" s="2" t="s">
         <v>72</v>
       </c>
@@ -14796,7 +16054,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="889" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="889" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B889" s="2" t="s">
         <v>72</v>
       </c>
@@ -14810,7 +16068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="890" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="890" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B890" s="2" t="s">
         <v>72</v>
       </c>
@@ -14826,8 +16084,14 @@
       <c r="G890" s="2" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="891" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H890">
+        <v>2</v>
+      </c>
+      <c r="I890">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="891" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B891" s="2" t="s">
         <v>72</v>
       </c>
@@ -14840,8 +16104,14 @@
       <c r="E891" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="892" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H891">
+        <v>2</v>
+      </c>
+      <c r="I891">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="892" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B892" s="2" t="s">
         <v>72</v>
       </c>
@@ -14854,8 +16124,14 @@
       <c r="E892" s="2" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="893" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H892">
+        <v>2</v>
+      </c>
+      <c r="I892">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="893" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B893" s="2" t="s">
         <v>72</v>
       </c>
@@ -14868,8 +16144,14 @@
       <c r="E893" s="2" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="894" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H893">
+        <v>2</v>
+      </c>
+      <c r="I893">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="894" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B894" s="2" t="s">
         <v>72</v>
       </c>
@@ -14882,8 +16164,14 @@
       <c r="E894" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="895" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H894">
+        <v>2</v>
+      </c>
+      <c r="I894">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="895" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B895" s="2" t="s">
         <v>72</v>
       </c>
@@ -14896,8 +16184,14 @@
       <c r="E895" s="2" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="896" spans="2:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H895">
+        <v>2</v>
+      </c>
+      <c r="I895">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="896" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B896" s="2" t="s">
         <v>72</v>
       </c>
@@ -14910,8 +16204,14 @@
       <c r="E896" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="897" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H896">
+        <v>2</v>
+      </c>
+      <c r="I896">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="897" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B897" s="2" t="s">
         <v>72</v>
       </c>
@@ -14924,8 +16224,14 @@
       <c r="E897" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="898" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H897">
+        <v>2</v>
+      </c>
+      <c r="I897">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="898" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B898" s="2" t="s">
         <v>72</v>
       </c>
@@ -14938,8 +16244,14 @@
       <c r="E898" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="899" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H898">
+        <v>2</v>
+      </c>
+      <c r="I898">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="899" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B899" s="2" t="s">
         <v>72</v>
       </c>
@@ -14952,8 +16264,14 @@
       <c r="E899" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="900" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H899">
+        <v>2</v>
+      </c>
+      <c r="I899">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="900" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B900" s="2" t="s">
         <v>72</v>
       </c>
@@ -14966,8 +16284,14 @@
       <c r="E900" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="901" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H900">
+        <v>2</v>
+      </c>
+      <c r="I900">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="901" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B901" s="2" t="s">
         <v>72</v>
       </c>
@@ -14980,8 +16304,14 @@
       <c r="E901" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="902" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H901">
+        <v>2</v>
+      </c>
+      <c r="I901">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="902" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B902" s="2" t="s">
         <v>72</v>
       </c>
@@ -14994,8 +16324,14 @@
       <c r="E902" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="903" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H902">
+        <v>2</v>
+      </c>
+      <c r="I902">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="903" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B903" s="2" t="s">
         <v>72</v>
       </c>
@@ -15008,8 +16344,14 @@
       <c r="E903" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="904" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H903">
+        <v>2</v>
+      </c>
+      <c r="I903">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="904" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B904" s="2" t="s">
         <v>72</v>
       </c>
@@ -15022,8 +16364,14 @@
       <c r="E904" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="905" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H904">
+        <v>2</v>
+      </c>
+      <c r="I904">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="905" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B905" s="2" t="s">
         <v>72</v>
       </c>
@@ -15036,8 +16384,14 @@
       <c r="E905" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="906" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H905">
+        <v>2</v>
+      </c>
+      <c r="I905">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="906" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B906" s="2" t="s">
         <v>72</v>
       </c>
@@ -15050,8 +16404,14 @@
       <c r="E906" s="2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="907" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H906">
+        <v>2</v>
+      </c>
+      <c r="I906">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="907" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B907" s="2" t="s">
         <v>72</v>
       </c>
@@ -15064,8 +16424,14 @@
       <c r="E907" s="2" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="908" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H907">
+        <v>2</v>
+      </c>
+      <c r="I907">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="908" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B908" s="2" t="s">
         <v>72</v>
       </c>
@@ -15078,8 +16444,14 @@
       <c r="E908" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="909" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H908">
+        <v>2</v>
+      </c>
+      <c r="I908">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="909" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B909" s="2" t="s">
         <v>72</v>
       </c>
@@ -15092,8 +16464,14 @@
       <c r="E909" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="910" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H909">
+        <v>2</v>
+      </c>
+      <c r="I909">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="910" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B910" s="2" t="s">
         <v>72</v>
       </c>
@@ -15106,8 +16484,14 @@
       <c r="E910" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="911" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H910">
+        <v>2</v>
+      </c>
+      <c r="I910">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="911" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B911" s="2" t="s">
         <v>72</v>
       </c>
@@ -15120,8 +16504,14 @@
       <c r="E911" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="912" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H911">
+        <v>2</v>
+      </c>
+      <c r="I911">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="912" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B912" s="2" t="s">
         <v>72</v>
       </c>
@@ -15134,8 +16524,14 @@
       <c r="E912" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="913" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H912">
+        <v>2</v>
+      </c>
+      <c r="I912">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="913" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B913" s="2" t="s">
         <v>72</v>
       </c>
@@ -15148,8 +16544,14 @@
       <c r="E913" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="914" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H913">
+        <v>2</v>
+      </c>
+      <c r="I913">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="914" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B914" s="2" t="s">
         <v>72</v>
       </c>
@@ -15162,8 +16564,14 @@
       <c r="E914" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="915" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H914">
+        <v>2</v>
+      </c>
+      <c r="I914">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="915" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B915" s="2" t="s">
         <v>72</v>
       </c>
@@ -15176,8 +16584,14 @@
       <c r="E915" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="916" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H915">
+        <v>2</v>
+      </c>
+      <c r="I915">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="916" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B916" s="2" t="s">
         <v>72</v>
       </c>
@@ -15190,8 +16604,14 @@
       <c r="E916" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="917" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H916">
+        <v>2</v>
+      </c>
+      <c r="I916">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="917" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B917" s="2" t="s">
         <v>72</v>
       </c>
@@ -15204,8 +16624,14 @@
       <c r="E917" s="2" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="918" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H917">
+        <v>2</v>
+      </c>
+      <c r="I917">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="918" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B918" s="2" t="s">
         <v>72</v>
       </c>
@@ -15218,8 +16644,14 @@
       <c r="E918" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="919" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H918">
+        <v>2</v>
+      </c>
+      <c r="I918">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="919" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B919" s="2" t="s">
         <v>72</v>
       </c>
@@ -15232,8 +16664,14 @@
       <c r="E919" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="920" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H919">
+        <v>2</v>
+      </c>
+      <c r="I919">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="920" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B920" s="2" t="s">
         <v>72</v>
       </c>
@@ -15246,8 +16684,14 @@
       <c r="E920" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="921" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H920">
+        <v>2</v>
+      </c>
+      <c r="I920">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="921" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B921" s="2" t="s">
         <v>72</v>
       </c>
@@ -15260,8 +16704,14 @@
       <c r="E921" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="922" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H921">
+        <v>2</v>
+      </c>
+      <c r="I921">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="922" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B922" s="2" t="s">
         <v>72</v>
       </c>
@@ -15274,8 +16724,14 @@
       <c r="E922" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="923" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H922">
+        <v>2</v>
+      </c>
+      <c r="I922">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="923" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B923" s="2" t="s">
         <v>72</v>
       </c>
@@ -15288,8 +16744,14 @@
       <c r="E923" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="924" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H923">
+        <v>2</v>
+      </c>
+      <c r="I923">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="924" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B924" s="2" t="s">
         <v>72</v>
       </c>
@@ -15302,8 +16764,14 @@
       <c r="E924" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="925" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H924">
+        <v>2</v>
+      </c>
+      <c r="I924">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="925" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B925" s="2" t="s">
         <v>72</v>
       </c>
@@ -15316,8 +16784,14 @@
       <c r="E925" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="926" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H925">
+        <v>2</v>
+      </c>
+      <c r="I925">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="926" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B926" s="2" t="s">
         <v>72</v>
       </c>
@@ -15330,8 +16804,14 @@
       <c r="E926" s="2" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="927" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H926">
+        <v>2</v>
+      </c>
+      <c r="I926">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="927" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B927" s="2" t="s">
         <v>72</v>
       </c>
@@ -15344,8 +16824,14 @@
       <c r="E927" s="2" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="928" spans="2:5" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H927">
+        <v>2</v>
+      </c>
+      <c r="I927">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="928" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B928" s="2" t="s">
         <v>72</v>
       </c>
@@ -15358,8 +16844,14 @@
       <c r="E928" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="929" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H928">
+        <v>2</v>
+      </c>
+      <c r="I928">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="929" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B929" s="2" t="s">
         <v>72</v>
       </c>
@@ -15372,8 +16864,14 @@
       <c r="E929" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="930" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H929">
+        <v>2</v>
+      </c>
+      <c r="I929">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="930" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B930" s="2" t="s">
         <v>72</v>
       </c>
@@ -15386,8 +16884,14 @@
       <c r="E930" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="931" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H930">
+        <v>2</v>
+      </c>
+      <c r="I930">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="931" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B931" s="2" t="s">
         <v>72</v>
       </c>
@@ -15400,8 +16904,14 @@
       <c r="E931" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="932" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H931">
+        <v>2</v>
+      </c>
+      <c r="I931">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="932" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B932" s="2" t="s">
         <v>72</v>
       </c>
@@ -15414,8 +16924,14 @@
       <c r="E932" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="933" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H932">
+        <v>2</v>
+      </c>
+      <c r="I932">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="933" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B933" s="2" t="s">
         <v>72</v>
       </c>
@@ -15428,8 +16944,14 @@
       <c r="E933" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="934" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H933">
+        <v>2</v>
+      </c>
+      <c r="I933">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="934" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B934" s="2" t="s">
         <v>72</v>
       </c>
@@ -15442,8 +16964,14 @@
       <c r="E934" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="935" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H934">
+        <v>2</v>
+      </c>
+      <c r="I934">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="935" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B935" s="2" t="s">
         <v>72</v>
       </c>
@@ -15456,8 +16984,14 @@
       <c r="E935" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="936" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H935">
+        <v>2</v>
+      </c>
+      <c r="I935">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="936" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B936" s="2" t="s">
         <v>72</v>
       </c>
@@ -15470,8 +17004,14 @@
       <c r="E936" s="2" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="937" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H936">
+        <v>2</v>
+      </c>
+      <c r="I936">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="937" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B937" s="2" t="s">
         <v>72</v>
       </c>
@@ -15484,8 +17024,14 @@
       <c r="E937" s="2" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="938" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H937">
+        <v>2</v>
+      </c>
+      <c r="I937">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="938" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="A938" s="4"/>
       <c r="B938" s="2" t="s">
         <v>72</v>
@@ -15499,8 +17045,14 @@
       </c>
       <c r="F938" s="4"/>
       <c r="G938" s="4"/>
-    </row>
-    <row r="939" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="H938">
+        <v>2</v>
+      </c>
+      <c r="I938">
+        <v>2.0350000000000001</v>
+      </c>
+    </row>
+    <row r="939" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B939" s="12" t="s">
         <v>62</v>
       </c>
@@ -15514,7 +17066,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="940" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="940" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B940" s="2" t="s">
         <v>62</v>
       </c>
@@ -15528,7 +17080,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="941" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="941" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B941" s="2" t="s">
         <v>62</v>
       </c>
@@ -15542,7 +17094,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="942" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="942" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B942" s="2" t="s">
         <v>62</v>
       </c>
@@ -15556,7 +17108,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="943" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="943" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B943" s="2" t="s">
         <v>62</v>
       </c>
@@ -15570,7 +17122,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="944" spans="1:7" ht="13.8" x14ac:dyDescent="0.3">
+    <row r="944" spans="1:9" ht="13.8" x14ac:dyDescent="0.3">
       <c r="B944" s="2" t="s">
         <v>62</v>
       </c>

--- a/raw_ts_data/fd/fd12_ts1.xlsx
+++ b/raw_ts_data/fd/fd12_ts1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ncw02\Downloads\IGEA\raw_ts_data\fd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7AF372-7981-4CA5-850F-AF3DF622ED3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11DDE01D-82DE-4365-B2A6-812418E18267}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{1A5253AB-7991-5C42-B2D2-1B4C073D839F}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2790" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2797" uniqueCount="95">
   <si>
     <t>Reach</t>
   </si>
@@ -317,12 +317,18 @@
   <si>
     <t>EP16</t>
   </si>
+  <si>
+    <t>manual</t>
+  </si>
+  <si>
+    <t>manual, DEEP SNOW</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -356,6 +362,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
@@ -411,7 +424,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -439,6 +452,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -759,8 +773,8 @@
   <dimension ref="A1:AC1372"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I164" sqref="I164:I179"/>
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G388" sqref="G388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.21875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8955,7 +8969,7 @@
         <v>47</v>
       </c>
       <c r="C395" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D395" s="1">
         <v>142</v>
@@ -8965,6 +8979,9 @@
       </c>
       <c r="F395" s="1">
         <v>1</v>
+      </c>
+      <c r="G395" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="396" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
@@ -8972,7 +8989,7 @@
         <v>47</v>
       </c>
       <c r="C396" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D396" s="1">
         <v>143</v>
@@ -8982,6 +8999,9 @@
       </c>
       <c r="F396" s="1">
         <v>1</v>
+      </c>
+      <c r="G396" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="397" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
@@ -8989,7 +9009,7 @@
         <v>47</v>
       </c>
       <c r="C397" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D397" s="1">
         <v>144</v>
@@ -8999,6 +9019,9 @@
       </c>
       <c r="F397" s="1">
         <v>1</v>
+      </c>
+      <c r="G397" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="398" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
@@ -9006,7 +9029,7 @@
         <v>47</v>
       </c>
       <c r="C398" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D398" s="1">
         <v>145</v>
@@ -9016,6 +9039,9 @@
       </c>
       <c r="F398" s="1">
         <v>1</v>
+      </c>
+      <c r="G398" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="399" spans="2:8" ht="13.8" x14ac:dyDescent="0.3">
@@ -9023,7 +9049,7 @@
         <v>47</v>
       </c>
       <c r="C399" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D399" s="1">
         <v>146</v>
@@ -9034,8 +9060,8 @@
       <c r="F399" s="1">
         <v>3</v>
       </c>
-      <c r="G399" s="1" t="s">
-        <v>51</v>
+      <c r="G399" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="H399" s="1">
         <v>8</v>
@@ -9046,7 +9072,7 @@
         <v>47</v>
       </c>
       <c r="C400" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D400" s="1">
         <v>147</v>
@@ -9056,6 +9082,9 @@
       </c>
       <c r="F400" s="1">
         <v>1</v>
+      </c>
+      <c r="G400" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="401" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
@@ -9063,7 +9092,7 @@
         <v>47</v>
       </c>
       <c r="C401" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D401" s="1">
         <v>148</v>
@@ -9073,6 +9102,9 @@
       </c>
       <c r="F401" s="1">
         <v>1</v>
+      </c>
+      <c r="G401" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="402" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
@@ -9080,7 +9112,7 @@
         <v>47</v>
       </c>
       <c r="C402" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D402" s="1">
         <v>149</v>
@@ -9090,6 +9122,9 @@
       </c>
       <c r="F402" s="1">
         <v>1</v>
+      </c>
+      <c r="G402" s="17" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="403" spans="2:9" ht="13.8" x14ac:dyDescent="0.3">
